--- a/10.結合テスト/総合テスト仕様書.xlsx
+++ b/10.結合テスト/総合テスト仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59FD9FF-3D61-4CA0-A8C2-E08B148E771D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC978FD-38E2-46DB-B93F-94C8C0E53E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="9" r:id="rId1"/>
@@ -13,21 +13,37 @@
     <sheet name="ログイン" sheetId="11" r:id="rId3"/>
     <sheet name="アカウント" sheetId="12" r:id="rId4"/>
     <sheet name="メニュー・お知らせ" sheetId="13" r:id="rId5"/>
-    <sheet name="前提条件①" sheetId="6" r:id="rId6"/>
+    <sheet name="家計データ" sheetId="14" r:id="rId6"/>
+    <sheet name="月表示" sheetId="16" r:id="rId7"/>
+    <sheet name="項目の編集" sheetId="15" r:id="rId8"/>
+    <sheet name="日データ修正" sheetId="17" r:id="rId9"/>
+    <sheet name="ユーザー設定" sheetId="18" r:id="rId10"/>
+    <sheet name="前提条件①" sheetId="6" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">アカウント!$B$7:$P$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">トップ!$B$7:$O$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">メニュー・お知らせ!$B$7:$P$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">ユーザー設定!$B$7:$O$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ログイン!$B$7:$O$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">前提条件①!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">家計データ!$B$7:$P$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">月表示!$B$7:$O$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">項目の編集!$B$7:$O$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">前提条件①!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">日データ修正!$B$7:$P$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">アカウント!$5:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">トップ!$5:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">メニュー・お知らせ!$5:$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">ユーザー設定!$5:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">ログイン!$5:$7</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">前提条件①!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">家計データ!$5:$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">月表示!$5:$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">項目の編集!$5:$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">前提条件①!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">日データ修正!$5:$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="231">
   <si>
     <t>No</t>
     <phoneticPr fontId="6"/>
@@ -108,16 +124,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>トップ画面へ遷移する</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>テスト結果</t>
     <rPh sb="3" eb="5">
       <t>ケッカ</t>
@@ -135,16 +141,6 @@
     <t>詳細</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ログイン画面へ遷移する</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -389,16 +385,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>メニュー画面に遷移</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>・ログイン画面が再表示される
 ・「ユーザーIDは必須です。」を表示</t>
     <rPh sb="31" eb="33">
@@ -518,16 +504,6 @@
     <t>画面遷移</t>
     <rPh sb="0" eb="4">
       <t>ガメンセンイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>トップ画面に遷移</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -916,13 +892,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>「お知らせはありません」を表示</t>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>6/15と同日、または6/15を過ぎていないとき</t>
     <rPh sb="5" eb="7">
       <t>ドウジツ</t>
@@ -943,19 +912,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>「15日のスマホ代が未入力です」を表示</t>
-    <rPh sb="3" eb="4">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>通知内容</t>
     <rPh sb="0" eb="2">
       <t>ツウチ</t>
@@ -1010,46 +966,363 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>記入画面に遷移</t>
+    <t>・メニュー画面に遷移</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・ログイン画面へ遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・トップ画面へ遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・「お知らせはありません」を表示</t>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・「15日のスマホ代が未入力です」を表示</t>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・記入画面に遷移</t>
+    <rPh sb="1" eb="3">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・閲覧画面に遷移</t>
+    <rPh sb="1" eb="3">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・設定画面に遷移</t>
+    <rPh sb="1" eb="3">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・セッションの全破棄
+・トップ画面に遷移</t>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・支出画面が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面表示切替</t>
     <rPh sb="0" eb="2">
-      <t>キニュウ</t>
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キリカエ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>初期表示</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「支出」ボタンを押す</t>
+    <rPh sb="1" eb="3">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「収入」ボタンを押す</t>
+    <rPh sb="1" eb="3">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>支出画面表示時</t>
+    <rPh sb="0" eb="2">
+      <t>シシュツ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>閲覧画面に遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>収入画面表示時</t>
     <rPh sb="0" eb="2">
-      <t>エツラン</t>
+      <t>シュウニュウ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ガメン</t>
     </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・収入画面を表示</t>
+    <rPh sb="1" eb="3">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・支出画面を表示</t>
+    <rPh sb="1" eb="3">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プルダウンの
+表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日付の指定</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>カレンダーのマークをクリックする</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・カレンダーを表示する
+・カレンダーから日付を入力できる</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・DBから項目名を取得
+・項目名をプルダウンで表示</t>
     <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>家計データ
+記入確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>カケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>家計データ
+記入画面</t>
+    <rPh sb="0" eb="2">
+      <t>カケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・家計データ記入確認画面に遷移</t>
+    <rPh sb="1" eb="3">
+      <t>カケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>設定画面に遷移</t>
-    <rPh sb="0" eb="2">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ログアウト画面に遷移</t>
+    <t>「項目の編集」ボタンを押す</t>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・項目編集画面に遷移</t>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
     </rPh>
@@ -1057,17 +1330,1046 @@
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・収支が表示される
+・日付が表示される
+・項目、金額が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「確認」ボタンを押す</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・家計データ記入画面の遷移</t>
+    <rPh sb="1" eb="3">
+      <t>カケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・家計データ記入完了画面に遷移</t>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>家計データ
+記入完了画面</t>
+    <rPh sb="0" eb="2">
+      <t>カケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「メニュー」ボタンを押す</t>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「2020年06月の月ごと表示」ボタンを押す</t>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「06月26日の日ごと表示」ボタンを押す</t>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・家計データ記入画面が再表示される
+・「入力内容をよくご確認ください」を表示</t>
+    <rPh sb="1" eb="3">
+      <t>カケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・家計データ記入画面が再表示される
+・「dateは必須です」を表示</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・家計データ記入画面が再表示される
+・「金額は必須です」を表示</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・日付の表示を行う
+・「2020年06月の月ごと」ボタンを表示
+・「06月26日の日ごと表示」ボタンを表示</t>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・メニュー画面の遷移</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・記入画面の遷移</t>
+    <rPh sb="1" eb="3">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・日付に対応した月表示画面の遷移</t>
+    <rPh sb="1" eb="3">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・日付に対応した日表示画面の遷移</t>
+    <rPh sb="1" eb="3">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>初期表示</t>
+    <rPh sb="0" eb="4">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>項目編集
+画面</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メニュー画面に遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>家計データ記入画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>カケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>収支</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>支出</t>
+    <rPh sb="0" eb="2">
+      <t>シシュツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・選択した収支の項目を表示される
+※収支が支出なので支出が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「追加」ボタンを押す</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・項目編集画面が再表示される
+・「項目名は必須です」を表示</t>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>娯楽費</t>
+    <rPh sb="0" eb="3">
+      <t>ゴラクヒ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・入力した項目名をitemテーブルに追加
+・項目編集画面が再表示される
+</t>
+    <rPh sb="22" eb="24">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「削除」ボタンを押す</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・項目編集画面が再表示される
+・「項目が選択されていません」を表示</t>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・選択した項目をitemテーブルから削除</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>月表示画面</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・該当する年を表示
+・月々の収入・支出・差額を表示</t>
+    <rPh sb="1" eb="3">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツキヅキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サガク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>年</t>
+    <rPh sb="0" eb="1">
+      <t>トシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>月を選択する</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・選択した月のカレンダー画面に遷移</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>カレンダー
+画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・月表示画面に遷移</t>
+    <rPh sb="1" eb="2">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日データの
+閲覧画面</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・該当する月を表示
+・選択した月の収入・支出・差額を表示
+・選択した月の支出を項目ごとに表示
+・カレンダー内に日ごとの支出を表示
+・項目ごとの割合を円グラフに表示</t>
+    <rPh sb="5" eb="6">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サガク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・カレンダー画面に遷移</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日データ
+修正画面</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>DBにデータが存在するとき</t>
+    <rPh sb="7" eb="9">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>DBにデータが存在しないとき</t>
+    <rPh sb="7" eb="9">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・該当する日を表示
+・選択した日の支出を項目ごとに表示
+・項目ごとの割合を円グラフに表示
+・日データ修正欄を表示</t>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ワリアイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・該当する日を表示
+・選択した日の支出を項目ごとに表示
+・項目ごとの割合を円グラフに表示</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>〇money</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>money_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>input_date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>修正金額内容</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・選択した日を表示する
+・選択した項目を表示する
+・選択した金額を表示する</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>入力値</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・日データ修正画面が再表示される
+・「金額が入力されていません」を表示</t>
+    <rPh sb="1" eb="2">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>サイヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・日データ閲覧画面に遷移</t>
+    <rPh sb="1" eb="2">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>エツランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・日データ修正画面が再表示される
+・amountテーブルの金額を更新
+・「その日の項目金額の修正が
+完了しました」を表示</t>
+    <rPh sb="29" eb="31">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザー情報修正入力画面</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「ユーザー名変更」ボタン押下</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>「パスワード変更」ボタン押下</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ユーザー入力</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>再PASS</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>チェック</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>食費
+交通費</t>
+    <rPh sb="0" eb="2">
+      <t>ショクヒ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウツウヒ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「修正」ボタン押下</t>
+  </si>
+  <si>
+    <t>ユーザー情報修正確認画面</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「戻る」ボタン押下</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・ユーザー入力の入力フォームが表示される</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>・PASSの入力フォームが表示される</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>・ユーザー情報修正確認画面に遷移</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>・設定画面に遷移</t>
+    <rPh sb="1" eb="5">
+      <t>セッテイガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・入力したパスワードが表示される
+・入力したユーザー名が表示される</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザー
+情報削除
+確認画面</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログインユーザーのパスワードと入力したパスワードが不一致</t>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>フイッチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログインユーザーのパスワードと入力したパスワードが一致</t>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・ユーザー情報修正画面が再表示される
+・「ユーザー名が入力されていません」を表示</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>・ユーザー情報修正画面が再表示される
+・「パスワード入力されていません」を表示</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>・ユーザー情報修正画面が再表示される
+・「パスワードがきちんと入力されていません」を表示</t>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>・ユーザー情報修正画面が再表示される
+・「パスワード間違っています」を表示</t>
+    <rPh sb="26" eb="28">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>・ユーザー削除完了画面に遷移</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>・ユーザー情報修正入力画面に遷移</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1154,6 +2456,27 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1169,7 +2492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1704,8 +3027,99 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1725,8 +3139,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1897,6 +3314,18 @@
     <xf numFmtId="56" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1954,8 +3383,50 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1963,6 +3434,7 @@
     <cellStyle name="標準 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="標準 2 3 2" xfId="6" xr:uid="{8DD1E67D-0BFF-4ADE-BC4C-84E6ACF3441C}"/>
     <cellStyle name="標準 2 4" xfId="4" xr:uid="{6E8443B2-E4A5-4A0C-B088-C9BDE0FC16C2}"/>
+    <cellStyle name="標準 5" xfId="7" xr:uid="{3A8FBFE9-AA22-493C-8785-B2A47AD99255}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2321,32 +3793,32 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
-      <c r="B2" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="B2" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36"/>
       <c r="B4" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>35</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>3</v>
@@ -2362,10 +3834,10 @@
         <v>41762</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="36"/>
     </row>
@@ -2648,6 +4120,890 @@
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20F3EAB-04A8-4DE3-9E6A-77367B7A6656}">
+  <dimension ref="B1:O22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36" style="1" customWidth="1"/>
+    <col min="11" max="11" width="54.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="76"/>
+      <c r="F6" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="66"/>
+      <c r="N6" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="72"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="61">
+        <v>1</v>
+      </c>
+      <c r="E7" s="61">
+        <v>2</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" s="86"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="68"/>
+      <c r="O7" s="70"/>
+    </row>
+    <row r="8" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="17">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="J9" s="53"/>
+      <c r="K9" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="17">
+        <f t="shared" ref="B10:B21" si="0">ROW()-7</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="88"/>
+      <c r="J10" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="K10" s="92" t="s">
+        <v>225</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="89"/>
+      <c r="J11" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="K11" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="89"/>
+      <c r="J12" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="K12" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="89"/>
+      <c r="J13" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="K13" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="89"/>
+      <c r="J14" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="K14" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="K17" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="J19" s="53"/>
+      <c r="K19" s="94" t="s">
+        <v>228</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="J20" s="53"/>
+      <c r="K20" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="2:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <autoFilter ref="B7:O7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="10">
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:L27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="2.625" style="15"/>
+    <col min="3" max="3" width="26.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="2.625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="28">
+        <v>1</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="28">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29">
+        <v>1</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="29">
+        <v>2</v>
+      </c>
+      <c r="G12" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C13" s="28">
+        <v>2</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="29">
+        <v>2</v>
+      </c>
+      <c r="G13" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C14" s="28">
+        <v>3</v>
+      </c>
+      <c r="D14" s="29">
+        <v>1</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="29">
+        <v>2</v>
+      </c>
+      <c r="G14" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C15" s="28">
+        <v>4</v>
+      </c>
+      <c r="D15" s="29">
+        <v>1</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="29">
+        <v>2</v>
+      </c>
+      <c r="G15" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C16" s="28">
+        <v>5</v>
+      </c>
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="29">
+        <v>1</v>
+      </c>
+      <c r="G16" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="28">
+        <v>1</v>
+      </c>
+      <c r="D20" s="85">
+        <v>43831</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="29">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="25" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="28">
+        <v>1</v>
+      </c>
+      <c r="D27" s="29">
+        <v>1</v>
+      </c>
+      <c r="E27" s="29">
+        <v>15</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -2662,7 +5018,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2696,7 +5052,7 @@
     </row>
     <row r="4" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -2704,44 +5060,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="71" t="s">
+      <c r="C6" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="59" t="s">
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="62"/>
-      <c r="N6" s="63" t="s">
+      <c r="L6" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="66"/>
+      <c r="N6" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="65" t="s">
+      <c r="O6" s="69" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="68"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -2755,17 +5111,17 @@
         <v>7</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="60"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="66"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="70"/>
     </row>
     <row r="8" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -2773,10 +5129,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
@@ -2784,10 +5140,10 @@
       <c r="H8" s="21"/>
       <c r="I8" s="19"/>
       <c r="J8" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="L8" s="23"/>
       <c r="M8" s="24"/>
@@ -2800,10 +5156,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
@@ -2811,10 +5167,10 @@
       <c r="H9" s="5"/>
       <c r="I9" s="3"/>
       <c r="J9" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -2861,7 +5217,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2895,7 +5251,7 @@
     </row>
     <row r="4" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -2903,44 +5259,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="71" t="s">
+      <c r="C6" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="59" t="s">
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="62"/>
-      <c r="N6" s="63" t="s">
+      <c r="L6" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="66"/>
+      <c r="N6" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="65" t="s">
+      <c r="O6" s="69" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="68"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -2951,20 +5307,20 @@
         <v>6</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="60"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="66"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="70"/>
     </row>
     <row r="8" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -2972,10 +5328,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="20" t="s">
@@ -2987,10 +5343,10 @@
       <c r="H8" s="21"/>
       <c r="I8" s="53"/>
       <c r="J8" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L8" s="23"/>
       <c r="M8" s="24"/>
@@ -3003,14 +5359,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>9</v>
@@ -3018,10 +5374,10 @@
       <c r="H9" s="5"/>
       <c r="I9" s="53"/>
       <c r="J9" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -3034,25 +5390,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="53"/>
       <c r="J10" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="24"/>
@@ -3065,25 +5421,25 @@
         <v>4</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="53"/>
       <c r="J11" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -3096,25 +5452,25 @@
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="53"/>
       <c r="J12" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L12" s="23"/>
       <c r="M12" s="24"/>
@@ -3127,27 +5483,27 @@
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="53"/>
       <c r="J13" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -3160,10 +5516,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="20"/>
@@ -3171,7 +5527,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="53"/>
       <c r="J14" s="53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K14" s="22" t="s">
         <v>70</v>
@@ -3214,10 +5570,10 @@
   <dimension ref="B1:P23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3252,7 +5608,7 @@
     </row>
     <row r="4" spans="2:16" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -3260,45 +5616,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="71" t="s">
+      <c r="C6" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="73" t="s">
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="62"/>
-      <c r="O6" s="73" t="s">
+      <c r="M6" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="66"/>
+      <c r="O6" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="75" t="s">
+      <c r="P6" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="68"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -3309,25 +5665,25 @@
         <v>6</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
+        <v>73</v>
+      </c>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
       <c r="M7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="74"/>
-      <c r="P7" s="76"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="80"/>
     </row>
     <row r="8" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -3335,10 +5691,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="20" t="s">
@@ -3353,10 +5709,10 @@
       <c r="I8" s="55"/>
       <c r="J8" s="53"/>
       <c r="K8" s="53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M8" s="23"/>
       <c r="N8" s="24"/>
@@ -3369,14 +5725,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>9</v>
@@ -3387,10 +5743,10 @@
       <c r="I9" s="55"/>
       <c r="J9" s="53"/>
       <c r="K9" s="53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -3403,30 +5759,30 @@
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="55"/>
       <c r="J10" s="53" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K10" s="53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M10" s="23"/>
       <c r="N10" s="24"/>
@@ -3439,28 +5795,28 @@
         <v>4</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I11" s="56"/>
       <c r="J11" s="53"/>
       <c r="K11" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
@@ -3473,30 +5829,30 @@
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I12" s="56"/>
       <c r="J12" s="53"/>
       <c r="K12" s="53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M12" s="23"/>
       <c r="N12" s="24"/>
@@ -3509,10 +5865,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
@@ -3521,10 +5877,10 @@
       <c r="I13" s="55"/>
       <c r="J13" s="53"/>
       <c r="K13" s="53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
@@ -3537,30 +5893,30 @@
         <v>7</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I14" s="56"/>
       <c r="J14" s="53"/>
       <c r="K14" s="53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M14" s="23"/>
       <c r="N14" s="24"/>
@@ -3573,26 +5929,26 @@
         <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I15" s="56"/>
       <c r="J15" s="53"/>
       <c r="K15" s="54"/>
       <c r="L15" s="22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
@@ -3605,26 +5961,26 @@
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I16" s="56"/>
       <c r="J16" s="53"/>
       <c r="K16" s="53"/>
       <c r="L16" s="22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M16" s="23"/>
       <c r="N16" s="24"/>
@@ -3637,30 +5993,30 @@
         <v>10</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J17" s="53"/>
       <c r="K17" s="53" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -3673,30 +6029,30 @@
         <v>11</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J18" s="53"/>
       <c r="K18" s="53" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M18" s="23"/>
       <c r="N18" s="24"/>
@@ -3709,30 +6065,30 @@
         <v>12</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J19" s="53"/>
       <c r="K19" s="53" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
@@ -3745,10 +6101,10 @@
         <v>13</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="20"/>
@@ -3757,10 +6113,10 @@
       <c r="I20" s="21"/>
       <c r="J20" s="53"/>
       <c r="K20" s="53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -3773,28 +6129,28 @@
         <v>14</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J21" s="53"/>
       <c r="K21" s="53"/>
       <c r="L21" s="22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
@@ -3807,10 +6163,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="20"/>
@@ -3820,7 +6176,7 @@
       <c r="J22" s="53"/>
       <c r="K22" s="53"/>
       <c r="L22" s="22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
@@ -3855,11 +6211,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A59098-8837-4D87-9321-8732054F92C4}">
   <dimension ref="B1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11:L14"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3874,7 +6230,7 @@
     <col min="8" max="9" width="10.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="31.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36" style="1" customWidth="1"/>
-    <col min="12" max="12" width="38" style="1" customWidth="1"/>
+    <col min="12" max="12" width="39.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="23.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.125" style="1" customWidth="1"/>
@@ -3895,7 +6251,7 @@
     </row>
     <row r="4" spans="2:16" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -3903,45 +6259,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="71" t="s">
+      <c r="C6" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="59" t="s">
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="62"/>
-      <c r="O6" s="63" t="s">
+      <c r="M6" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="66"/>
+      <c r="O6" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="65" t="s">
+      <c r="P6" s="69" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="68"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -3949,28 +6305,28 @@
         <v>2</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="60"/>
+        <v>106</v>
+      </c>
+      <c r="J7" s="78"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="70"/>
     </row>
     <row r="8" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -3978,13 +6334,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="20">
         <v>1</v>
@@ -3993,7 +6349,7 @@
         <v>43997</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I8" s="21" t="b">
         <v>0</v>
@@ -4001,7 +6357,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="M8" s="23"/>
       <c r="N8" s="24"/>
@@ -4014,10 +6370,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="20">
@@ -4027,17 +6383,17 @@
         <v>43997</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I9" s="21" t="b">
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="22" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -4050,10 +6406,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="20">
@@ -4063,33 +6419,33 @@
         <v>43997</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I10" s="21" t="b">
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="22" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M10" s="23"/>
       <c r="N10" s="24"/>
       <c r="O10" s="9"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="2:16" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="20"/>
@@ -4098,26 +6454,26 @@
       <c r="I11" s="21"/>
       <c r="J11" s="3"/>
       <c r="K11" s="53" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="9"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="2:16" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
@@ -4126,26 +6482,26 @@
       <c r="I12" s="21"/>
       <c r="J12" s="19"/>
       <c r="K12" s="53" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M12" s="23"/>
       <c r="N12" s="24"/>
       <c r="O12" s="9"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="2:16" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="20"/>
@@ -4154,26 +6510,26 @@
       <c r="I13" s="21"/>
       <c r="J13" s="3"/>
       <c r="K13" s="53" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="9"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="2:16" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="20"/>
@@ -4182,10 +6538,10 @@
       <c r="I14" s="21"/>
       <c r="J14" s="3"/>
       <c r="K14" s="53" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
@@ -4221,311 +6577,1801 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1058602A-92D3-4D3F-9EE3-0EAB5CD9201C}">
+  <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="2.625" style="15"/>
-    <col min="3" max="3" width="26.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="21.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="2.625" style="15"/>
+    <col min="1" max="1" width="2.625" style="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="2:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:16" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:16" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:16" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="76"/>
+      <c r="F6" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="15" t="s">
+      <c r="L6" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="66"/>
+      <c r="O6" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="72"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="59">
+        <v>1</v>
+      </c>
+      <c r="E7" s="59">
+        <v>2</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="78"/>
+      <c r="P7" s="80"/>
+    </row>
+    <row r="8" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="17">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="M8" s="23"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="17">
+        <f t="shared" ref="B10:B26" si="0">ROW()-7</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="83">
+        <v>44008</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="83">
+        <v>44008</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="83">
+        <v>44008</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="84">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="83">
+        <v>44008</v>
+      </c>
+      <c r="G18" s="83"/>
+      <c r="H18" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="84">
+        <v>2000</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="2:16" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="83">
+        <v>44008</v>
+      </c>
+      <c r="G19" s="83"/>
+      <c r="H19" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="84">
+        <v>2000</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="83">
+        <v>44008</v>
+      </c>
+      <c r="G20" s="83"/>
+      <c r="H20" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="84">
+        <v>2000</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="83">
+        <v>44008</v>
+      </c>
+      <c r="G21" s="83"/>
+      <c r="H21" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="84">
+        <v>2000</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="2:16" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="83">
+        <v>44008</v>
+      </c>
+      <c r="G22" s="83"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="7">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C23" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="83">
+        <v>44008</v>
+      </c>
+      <c r="G23" s="83"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="7">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="28">
-        <v>1</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="28">
-        <v>1</v>
-      </c>
-      <c r="D12" s="29">
-        <v>1</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="29">
-        <v>2</v>
-      </c>
-      <c r="G12" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C13" s="28">
-        <v>2</v>
-      </c>
-      <c r="D13" s="29">
-        <v>1</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="29">
-        <v>2</v>
-      </c>
-      <c r="G13" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C14" s="28">
-        <v>3</v>
-      </c>
-      <c r="D14" s="29">
-        <v>1</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="29">
-        <v>2</v>
-      </c>
-      <c r="G14" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C15" s="28">
-        <v>4</v>
-      </c>
-      <c r="D15" s="29">
-        <v>1</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="29">
-        <v>2</v>
-      </c>
-      <c r="G15" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C16" s="28">
-        <v>5</v>
-      </c>
-      <c r="D16" s="29">
-        <v>1</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="29">
-        <v>1</v>
-      </c>
-      <c r="G16" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="28">
-        <v>1</v>
-      </c>
-      <c r="D20" s="29">
-        <v>1</v>
-      </c>
-      <c r="E20" s="29">
-        <v>15</v>
-      </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C21" s="28">
-        <v>2</v>
-      </c>
-      <c r="D21" s="29">
-        <v>1</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C22" s="28">
-        <v>3</v>
-      </c>
-      <c r="D22" s="29">
-        <v>1</v>
-      </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-    </row>
+      <c r="C24" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="83">
+        <v>44008</v>
+      </c>
+      <c r="G24" s="83"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="83">
+        <v>44008</v>
+      </c>
+      <c r="G25" s="83"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="83">
+        <v>44008</v>
+      </c>
+      <c r="G26" s="83"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <autoFilter ref="B7:P7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="10">
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="F6:I6"/>
+  </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA78DF8-84A2-4F9F-BEBD-F34AE67C5B8E}">
+  <dimension ref="B1:O19"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="76"/>
+      <c r="F6" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="66"/>
+      <c r="N6" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="72"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="61">
+        <v>1</v>
+      </c>
+      <c r="E7" s="61">
+        <v>2</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="78"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="68"/>
+      <c r="O7" s="70"/>
+    </row>
+    <row r="8" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="17">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="20">
+        <v>2020</v>
+      </c>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="17">
+        <f t="shared" ref="B10:B16" si="0">ROW()-7</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="20">
+        <v>2020</v>
+      </c>
+      <c r="G10" s="84">
+        <v>1</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="2:15" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:15" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="20">
+        <v>2020</v>
+      </c>
+      <c r="G14" s="84">
+        <v>1</v>
+      </c>
+      <c r="H14" s="84">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" s="53"/>
+      <c r="K14" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J15" s="53"/>
+      <c r="K15" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <autoFilter ref="B7:O7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="10">
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC944AB2-D2D1-41A1-8E6C-42D8B344D676}">
+  <dimension ref="B1:O19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="66"/>
+      <c r="N6" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="72"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="61">
+        <v>1</v>
+      </c>
+      <c r="E7" s="61">
+        <v>2</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="78"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="68"/>
+      <c r="O7" s="70"/>
+    </row>
+    <row r="8" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <f>ROW()-7</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f>ROW()-7</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <f>ROW()-7</f>
+        <v>5</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <f>ROW()-7</f>
+        <v>6</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
+        <f>ROW()-7</f>
+        <v>7</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
+        <f>ROW()-7</f>
+        <v>8</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="57"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7">
+        <f>ROW()-7</f>
+        <v>9</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <autoFilter ref="B7:O7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="10">
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31965CC8-B02A-4A58-82FF-7C9352947558}">
+  <dimension ref="B1:P19"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36" style="1" customWidth="1"/>
+    <col min="12" max="12" width="39.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:16" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:16" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:16" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="76"/>
+      <c r="F6" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="66"/>
+      <c r="O6" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="72"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="61">
+        <v>1</v>
+      </c>
+      <c r="E7" s="61">
+        <v>2</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="J7" s="78"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="68"/>
+      <c r="P7" s="70"/>
+    </row>
+    <row r="8" spans="2:16" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="17">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="84">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M8" s="23"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="2:16" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="17">
+        <f t="shared" ref="B10:B11" si="0">ROW()-7</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="21">
+        <v>3000</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="2:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <autoFilter ref="B7:P7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="10">
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>

--- a/10.結合テスト/総合テスト仕様書.xlsx
+++ b/10.結合テスト/総合テスト仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC978FD-38E2-46DB-B93F-94C8C0E53E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{81C8802A-DA63-4BBD-B558-DB7A2DFD6448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9915" yWindow="345" windowWidth="13995" windowHeight="12585" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="項目の編集" sheetId="15" r:id="rId8"/>
     <sheet name="日データ修正" sheetId="17" r:id="rId9"/>
     <sheet name="ユーザー設定" sheetId="18" r:id="rId10"/>
-    <sheet name="前提条件①" sheetId="6" r:id="rId11"/>
+    <sheet name="通知（支払い）" sheetId="19" r:id="rId11"/>
+    <sheet name="通知（LINE）" sheetId="20" r:id="rId12"/>
+    <sheet name="前提条件①" sheetId="6" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">アカウント!$B$7:$P$7</definedName>
@@ -29,7 +31,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">家計データ!$B$7:$P$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">月表示!$B$7:$O$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">項目の編集!$B$7:$O$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">前提条件①!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">前提条件①!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'通知（LINE）'!$B$7:$N$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'通知（支払い）'!$B$7:$N$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">日データ修正!$B$7:$P$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">アカウント!$5:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">トップ!$5:$7</definedName>
@@ -39,7 +43,9 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="5">家計データ!$5:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">月表示!$5:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">項目の編集!$5:$7</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="10">前提条件①!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="12">前提条件①!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="11">'通知（LINE）'!$5:$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">'通知（支払い）'!$5:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">日データ修正!$5:$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -58,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="256">
   <si>
     <t>No</t>
     <phoneticPr fontId="6"/>
@@ -1387,13 +1393,7 @@
   <si>
     <t>・家計データ記入完了画面に遷移</t>
     <rPh sb="8" eb="10">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
+      <t>カンリョウガメンセンイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -2358,6 +2358,266 @@
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>支払い通知
+機能画面</t>
+    <rPh sb="0" eb="2">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「メニュー」ボタン押下</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「保存」ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>〇notices_month</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>notices_month_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>notice_date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>notice_delete</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・支払い通知機能画面が再表示される
+・選択した項目の設定情報をnotices_month_settingテーブルに更新</t>
+    <rPh sb="1" eb="3">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「追加」ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・支払い通知一覧を表示</t>
+    <rPh sb="1" eb="3">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>notices_month_settingテーブルにログインユーザーのusers_idに対応した情報があれば</t>
+    <rPh sb="44" eb="46">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>スマホ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>aaa…
+(２１文字以上)</t>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・支払い通知機能画面が再表示される
+・「？？？」を表示</t>
+    <rPh sb="1" eb="3">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・支払い通知機能画面が再表示される
+・「項目は必須です」を表示</t>
+    <rPh sb="1" eb="3">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>２１文字以上入力したとき</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日付が重複したとき</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュウフク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>項目が重複したとき</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュウフク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日付・項目が重複したとき</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュウフク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>１日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・支払い通知機能画面が再表示される
+・入力した項目と日付をnotices_month_settingテーブルに追加</t>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・支払い通知機能画面が再表示される
+・入力した項目と日付をnotices_month_settingテーブルに追加</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>３日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -2367,7 +2627,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -3143,7 +3403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -3326,6 +3586,48 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3383,47 +3685,20 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3793,20 +4068,20 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4130,11 +4405,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20F3EAB-04A8-4DE3-9E6A-77367B7A6656}">
   <dimension ref="B1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="J15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4178,44 +4453,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="75" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77" t="s">
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="63" t="s">
+      <c r="K6" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="66"/>
-      <c r="N6" s="67" t="s">
+      <c r="M6" s="80"/>
+      <c r="N6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="83" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="72"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="61">
         <v>1</v>
       </c>
@@ -4231,17 +4506,17 @@
       <c r="H7" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="I7" s="86"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="64"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="78"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="70"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="84"/>
     </row>
     <row r="8" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -4257,12 +4532,12 @@
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
       <c r="G8" s="57"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="87" t="s">
+      <c r="H8" s="66"/>
+      <c r="I8" s="68" t="s">
         <v>206</v>
       </c>
       <c r="J8" s="22"/>
-      <c r="K8" s="90" t="s">
+      <c r="K8" s="71" t="s">
         <v>217</v>
       </c>
       <c r="L8" s="23"/>
@@ -4285,11 +4560,11 @@
       <c r="F9" s="20"/>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
-      <c r="I9" s="88" t="s">
+      <c r="I9" s="69" t="s">
         <v>207</v>
       </c>
       <c r="J9" s="53"/>
-      <c r="K9" s="91" t="s">
+      <c r="K9" s="72" t="s">
         <v>218</v>
       </c>
       <c r="L9" s="12"/>
@@ -4318,11 +4593,11 @@
       <c r="H10" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="88"/>
+      <c r="I10" s="69"/>
       <c r="J10" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="K10" s="92" t="s">
+      <c r="K10" s="73" t="s">
         <v>225</v>
       </c>
       <c r="L10" s="23"/>
@@ -4351,11 +4626,11 @@
       <c r="H11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="89"/>
+      <c r="I11" s="70"/>
       <c r="J11" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="K11" s="94" t="s">
+      <c r="K11" s="75" t="s">
         <v>226</v>
       </c>
       <c r="L11" s="12"/>
@@ -4384,11 +4659,11 @@
       <c r="H12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="89"/>
+      <c r="I12" s="70"/>
       <c r="J12" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="K12" s="94" t="s">
+      <c r="K12" s="75" t="s">
         <v>226</v>
       </c>
       <c r="L12" s="12"/>
@@ -4417,11 +4692,11 @@
       <c r="H13" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="89"/>
+      <c r="I13" s="70"/>
       <c r="J13" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="K13" s="94" t="s">
+      <c r="K13" s="75" t="s">
         <v>227</v>
       </c>
       <c r="L13" s="12"/>
@@ -4452,11 +4727,11 @@
       <c r="H14" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="89"/>
+      <c r="I14" s="70"/>
       <c r="J14" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="K14" s="93" t="s">
+      <c r="K14" s="74" t="s">
         <v>219</v>
       </c>
       <c r="L14" s="12"/>
@@ -4479,7 +4754,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="89"/>
+      <c r="I15" s="70"/>
       <c r="J15" s="53" t="s">
         <v>214</v>
       </c>
@@ -4506,7 +4781,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
-      <c r="I16" s="89"/>
+      <c r="I16" s="70"/>
       <c r="J16" s="53"/>
       <c r="K16" s="10" t="s">
         <v>221</v>
@@ -4531,11 +4806,11 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="89"/>
+      <c r="I17" s="70"/>
       <c r="J17" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="K17" s="93" t="s">
+      <c r="K17" s="74" t="s">
         <v>219</v>
       </c>
       <c r="L17" s="12"/>
@@ -4560,9 +4835,9 @@
         <v>47</v>
       </c>
       <c r="H18" s="20"/>
-      <c r="I18" s="89"/>
+      <c r="I18" s="70"/>
       <c r="J18" s="53"/>
-      <c r="K18" s="94" t="s">
+      <c r="K18" s="75" t="s">
         <v>226</v>
       </c>
       <c r="L18" s="12"/>
@@ -4587,11 +4862,11 @@
         <v>60</v>
       </c>
       <c r="H19" s="20"/>
-      <c r="I19" s="89" t="s">
+      <c r="I19" s="70" t="s">
         <v>223</v>
       </c>
       <c r="J19" s="53"/>
-      <c r="K19" s="94" t="s">
+      <c r="K19" s="75" t="s">
         <v>228</v>
       </c>
       <c r="L19" s="12"/>
@@ -4618,11 +4893,11 @@
         <v>46</v>
       </c>
       <c r="H20" s="20"/>
-      <c r="I20" s="89" t="s">
+      <c r="I20" s="70" t="s">
         <v>224</v>
       </c>
       <c r="J20" s="53"/>
-      <c r="K20" s="91" t="s">
+      <c r="K20" s="72" t="s">
         <v>229</v>
       </c>
       <c r="L20" s="12"/>
@@ -4645,11 +4920,11 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="89"/>
+      <c r="I21" s="70"/>
       <c r="J21" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="K21" s="93" t="s">
+      <c r="K21" s="74" t="s">
         <v>230</v>
       </c>
       <c r="L21" s="12"/>
@@ -4682,22 +4957,924 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DFA58-E54C-4D86-8EBC-CF10032A0B75}">
+  <dimension ref="B1:N19"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36" style="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:14" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:14" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:14" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="95"/>
+      <c r="H6" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="80"/>
+      <c r="M6" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="86"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="63">
+        <v>1</v>
+      </c>
+      <c r="E7" s="63">
+        <v>2</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="92"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="82"/>
+      <c r="N7" s="84"/>
+    </row>
+    <row r="8" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="17">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="17">
+        <f t="shared" ref="B10:B18" si="0">ROW()-7</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="97"/>
+      <c r="I13" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="G14" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="2:14" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="2:14" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="2:14" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="2:14" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="2:14" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <autoFilter ref="B7:N7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="10">
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D713CA-CC89-4BE7-B907-4D2E29DAC270}">
+  <dimension ref="B1:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36" style="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:14" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:14" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:14" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="95"/>
+      <c r="H6" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="80"/>
+      <c r="M6" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="86"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="63">
+        <v>1</v>
+      </c>
+      <c r="E7" s="63">
+        <v>2</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="92"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="82"/>
+      <c r="N7" s="84"/>
+    </row>
+    <row r="8" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="17">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="17">
+        <f t="shared" ref="B10:B18" si="0">ROW()-7</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="97"/>
+      <c r="I13" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="G14" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="2:14" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="2:14" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="2:14" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="2:14" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="2:14" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <autoFilter ref="B7:N7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="10">
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:L27"/>
+  <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.625" style="15"/>
     <col min="3" max="3" width="26.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.25" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="21.625" style="15" bestFit="1" customWidth="1"/>
@@ -4781,8 +5958,8 @@
       <c r="G8" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="30" t="s">
-        <v>47</v>
+      <c r="H8" s="98">
+        <v>44008</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>47</v>
@@ -4939,8 +6116,8 @@
       <c r="C20" s="28">
         <v>1</v>
       </c>
-      <c r="D20" s="85">
-        <v>43831</v>
+      <c r="D20" s="67">
+        <v>44008</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>93</v>
@@ -4949,54 +6126,155 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G23" s="1"/>
-    </row>
-    <row r="25" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="1" t="s">
+    <row r="23" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="28">
+        <v>1</v>
+      </c>
+      <c r="D25" s="67">
+        <v>44008</v>
+      </c>
+      <c r="E25" s="29">
+        <v>1</v>
+      </c>
+      <c r="F25" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C26" s="28">
+        <v>2</v>
+      </c>
+      <c r="D26" s="67">
+        <v>44008</v>
+      </c>
+      <c r="E26" s="29">
+        <v>2</v>
+      </c>
+      <c r="F26" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C27" s="28">
+        <v>3</v>
+      </c>
+      <c r="D27" s="67">
+        <v>44008</v>
+      </c>
+      <c r="E27" s="29">
+        <v>3</v>
+      </c>
+      <c r="F27" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="25" t="s">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D31" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E31" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F31" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G31" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H31" s="26" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="28">
+    <row r="32" spans="3:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="28">
         <v>1</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D32" s="29">
         <v>1</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E32" s="29">
         <v>15</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F32" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G27" s="30" t="b">
+      <c r="G32" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H27" s="30" t="b">
+      <c r="H32" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C33" s="28">
+        <v>2</v>
+      </c>
+      <c r="D33" s="29">
+        <v>1</v>
+      </c>
+      <c r="E33" s="29">
+        <v>20</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C34" s="28">
+        <v>3</v>
+      </c>
+      <c r="D34" s="29">
+        <v>1</v>
+      </c>
+      <c r="E34" s="29">
+        <v>25</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5060,44 +6338,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="75" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77" t="s">
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="63" t="s">
+      <c r="K6" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="66"/>
-      <c r="N6" s="67" t="s">
+      <c r="M6" s="80"/>
+      <c r="N6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="83" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="72"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -5111,17 +6389,17 @@
         <v>7</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="64"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="78"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="70"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="84"/>
     </row>
     <row r="8" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -5259,44 +6537,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="75" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77" t="s">
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="63" t="s">
+      <c r="K6" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="66"/>
-      <c r="N6" s="67" t="s">
+      <c r="M6" s="80"/>
+      <c r="N6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="83" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="72"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -5310,17 +6588,17 @@
         <v>50</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="64"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="78"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="70"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="84"/>
     </row>
     <row r="8" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -5616,45 +6894,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="75" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77" t="s">
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="77" t="s">
+      <c r="L6" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="66"/>
-      <c r="O6" s="77" t="s">
+      <c r="N6" s="80"/>
+      <c r="O6" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="79" t="s">
+      <c r="P6" s="93" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="72"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -5673,17 +6951,17 @@
       <c r="I7" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
       <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="78"/>
-      <c r="P7" s="80"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="94"/>
     </row>
     <row r="8" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -6259,45 +7537,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="75" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77" t="s">
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="63" t="s">
+      <c r="L6" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="66"/>
-      <c r="O6" s="67" t="s">
+      <c r="N6" s="80"/>
+      <c r="O6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="69" t="s">
+      <c r="P6" s="83" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="72"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -6316,17 +7594,17 @@
       <c r="I7" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="64"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="78"/>
       <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="70"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="84"/>
     </row>
     <row r="8" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -6628,45 +7906,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="75" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="77" t="s">
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="77" t="s">
+      <c r="L6" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="66"/>
-      <c r="O6" s="77" t="s">
+      <c r="N6" s="80"/>
+      <c r="O6" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="79" t="s">
+      <c r="P6" s="93" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="72"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="59">
         <v>1</v>
       </c>
@@ -6685,17 +7963,17 @@
       <c r="I7" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
       <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="78"/>
-      <c r="P7" s="80"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="94"/>
     </row>
     <row r="8" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -6715,7 +7993,7 @@
       <c r="I8" s="57"/>
       <c r="J8" s="19"/>
       <c r="K8" s="53"/>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="64" t="s">
         <v>125</v>
       </c>
       <c r="M8" s="23"/>
@@ -6913,7 +8191,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="83">
+      <c r="F15" s="65">
         <v>44008</v>
       </c>
       <c r="G15" s="20" t="s">
@@ -6949,7 +8227,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="83">
+      <c r="F16" s="65">
         <v>44008</v>
       </c>
       <c r="G16" s="20" t="s">
@@ -6985,7 +8263,7 @@
         <v>66</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="83">
+      <c r="F17" s="65">
         <v>44008</v>
       </c>
       <c r="G17" s="20" t="s">
@@ -6994,7 +8272,7 @@
       <c r="H17" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="84">
+      <c r="I17" s="66">
         <v>2000</v>
       </c>
       <c r="J17" s="3"/>
@@ -7021,14 +8299,14 @@
         <v>66</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="83">
+      <c r="F18" s="65">
         <v>44008</v>
       </c>
-      <c r="G18" s="83"/>
+      <c r="G18" s="65"/>
       <c r="H18" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="84">
+      <c r="I18" s="66">
         <v>2000</v>
       </c>
       <c r="J18" s="3"/>
@@ -7055,14 +8333,14 @@
         <v>127</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="83">
+      <c r="F19" s="65">
         <v>44008</v>
       </c>
-      <c r="G19" s="83"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="84">
+      <c r="I19" s="66">
         <v>2000</v>
       </c>
       <c r="J19" s="3"/>
@@ -7087,14 +8365,14 @@
         <v>66</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="83">
+      <c r="F20" s="65">
         <v>44008</v>
       </c>
-      <c r="G20" s="83"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="84">
+      <c r="I20" s="66">
         <v>2000</v>
       </c>
       <c r="J20" s="3"/>
@@ -7121,14 +8399,14 @@
         <v>66</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="83">
+      <c r="F21" s="65">
         <v>44008</v>
       </c>
-      <c r="G21" s="83"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="84">
+      <c r="I21" s="66">
         <v>2000</v>
       </c>
       <c r="J21" s="3"/>
@@ -7155,12 +8433,12 @@
         <v>127</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="83">
+      <c r="F22" s="65">
         <v>44008</v>
       </c>
-      <c r="G22" s="83"/>
+      <c r="G22" s="65"/>
       <c r="H22" s="57"/>
-      <c r="I22" s="84"/>
+      <c r="I22" s="66"/>
       <c r="J22" s="3"/>
       <c r="K22" s="53"/>
       <c r="L22" s="10" t="s">
@@ -7183,12 +8461,12 @@
         <v>66</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="83">
+      <c r="F23" s="65">
         <v>44008</v>
       </c>
-      <c r="G23" s="83"/>
+      <c r="G23" s="65"/>
       <c r="H23" s="57"/>
-      <c r="I23" s="84"/>
+      <c r="I23" s="66"/>
       <c r="J23" s="3"/>
       <c r="K23" s="53" t="s">
         <v>151</v>
@@ -7213,12 +8491,12 @@
         <v>66</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="83">
+      <c r="F24" s="65">
         <v>44008</v>
       </c>
-      <c r="G24" s="83"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="57"/>
-      <c r="I24" s="84"/>
+      <c r="I24" s="66"/>
       <c r="J24" s="3"/>
       <c r="K24" s="53" t="s">
         <v>152</v>
@@ -7243,12 +8521,12 @@
         <v>66</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="83">
+      <c r="F25" s="65">
         <v>44008</v>
       </c>
-      <c r="G25" s="83"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="57"/>
-      <c r="I25" s="84"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="3"/>
       <c r="K25" s="53" t="s">
         <v>153</v>
@@ -7273,12 +8551,12 @@
         <v>66</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="83">
+      <c r="F26" s="65">
         <v>44008</v>
       </c>
-      <c r="G26" s="83"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="57"/>
-      <c r="I26" s="84"/>
+      <c r="I26" s="66"/>
       <c r="J26" s="3"/>
       <c r="K26" s="53" t="s">
         <v>112</v>
@@ -7320,7 +8598,7 @@
   <dimension ref="B1:O19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="F14" sqref="F14:G14"/>
@@ -7365,44 +8643,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="75" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77" t="s">
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="63" t="s">
+      <c r="K6" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="66"/>
-      <c r="N6" s="67" t="s">
+      <c r="M6" s="80"/>
+      <c r="N6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="83" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="72"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="61">
         <v>1</v>
       </c>
@@ -7418,17 +8696,17 @@
       <c r="H7" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="64"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="78"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="70"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="84"/>
     </row>
     <row r="8" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -7501,7 +8779,7 @@
       <c r="F10" s="20">
         <v>2020</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="66">
         <v>1</v>
       </c>
       <c r="H10" s="57"/>
@@ -7532,7 +8810,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="84"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="57"/>
       <c r="I11" s="3"/>
       <c r="J11" s="53"/>
@@ -7557,7 +8835,7 @@
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="84"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="57"/>
       <c r="I12" s="19"/>
       <c r="J12" s="53" t="s">
@@ -7584,8 +8862,8 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
       <c r="I13" s="3"/>
       <c r="J13" s="53" t="s">
         <v>151</v>
@@ -7615,10 +8893,10 @@
       <c r="F14" s="20">
         <v>2020</v>
       </c>
-      <c r="G14" s="84">
+      <c r="G14" s="66">
         <v>1</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H14" s="66">
         <v>1</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -7646,8 +8924,8 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
       <c r="I15" s="3" t="s">
         <v>191</v>
       </c>
@@ -7673,8 +8951,8 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
       <c r="I16" s="3"/>
       <c r="J16" s="53" t="s">
         <v>24</v>
@@ -7765,42 +9043,42 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="63" t="s">
+      <c r="K6" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="66"/>
-      <c r="N6" s="67" t="s">
+      <c r="M6" s="80"/>
+      <c r="N6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="83" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="72"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="61">
         <v>1</v>
       </c>
@@ -7816,21 +9094,21 @@
       <c r="H7" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="64"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="78"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="70"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="84"/>
     </row>
     <row r="8" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
-        <f>ROW()-7</f>
+        <f t="shared" ref="B8:B16" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -7857,7 +9135,7 @@
     </row>
     <row r="9" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -7884,7 +9162,7 @@
     </row>
     <row r="10" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -7911,7 +9189,7 @@
     </row>
     <row r="11" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -7938,7 +9216,7 @@
     </row>
     <row r="12" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -7965,7 +9243,7 @@
     </row>
     <row r="13" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -7996,7 +9274,7 @@
     </row>
     <row r="14" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -8027,7 +9305,7 @@
     </row>
     <row r="15" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
@@ -8056,7 +9334,7 @@
     </row>
     <row r="16" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -8114,10 +9392,10 @@
   <dimension ref="B1:P19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8162,45 +9440,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="75" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77" t="s">
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="63" t="s">
+      <c r="L6" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="66"/>
-      <c r="O6" s="67" t="s">
+      <c r="N6" s="80"/>
+      <c r="O6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="69" t="s">
+      <c r="P6" s="83" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="72"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="61">
         <v>1</v>
       </c>
@@ -8219,17 +9497,17 @@
       <c r="I7" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="64"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="78"/>
       <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="70"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="84"/>
     </row>
     <row r="8" spans="2:16" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -8251,7 +9529,7 @@
       <c r="G8" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="66">
         <v>2000</v>
       </c>
       <c r="I8" s="21"/>

--- a/10.結合テスト/総合テスト仕様書.xlsx
+++ b/10.結合テスト/総合テスト仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{81C8802A-DA63-4BBD-B558-DB7A2DFD6448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54A7F62-FF64-468C-960C-7500FC2D279A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9915" yWindow="345" windowWidth="13995" windowHeight="12585" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9690" yWindow="195" windowWidth="13995" windowHeight="12585" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">月表示!$B$7:$O$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">項目の編集!$B$7:$O$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">前提条件①!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'通知（LINE）'!$B$7:$N$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'通知（LINE）'!$B$7:$O$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'通知（支払い）'!$B$7:$N$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">日データ修正!$B$7:$P$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">アカウント!$5:$7</definedName>
@@ -49,7 +49,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="8">日データ修正!$5:$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="271">
   <si>
     <t>No</t>
     <phoneticPr fontId="6"/>
@@ -2360,23 +2359,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>支払い通知
-機能画面</t>
-    <rPh sb="0" eb="2">
-      <t>シハラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>「メニュー」ボタン押下</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -2616,6 +2598,231 @@
     <t>３日</t>
     <rPh sb="1" eb="2">
       <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>支払い通知設定画面</t>
+    <rPh sb="0" eb="2">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>LINE通知
+設定画面</t>
+    <rPh sb="4" eb="6">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>usersテーブルにログインユーザーのusers_idに対応したline_tokenがあれば</t>
+    <rPh sb="28" eb="30">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・入力フォームにline_tokenの値を入力する</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>トークン</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>AZ・・・</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>時間（時）</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・支払い通知機能画面が再表示される
+・「トークンが入力されていません」を表示</t>
+    <rPh sb="1" eb="3">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・支払い通知機能画面が再表示される
+・「どちらも、時間が入力されていません」を表示</t>
+    <rPh sb="1" eb="3">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>時間が０～23、分が0～59以外の時</t>
+    <rPh sb="0" eb="2">
+      <t>ｼﾞｶﾝ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ﾌﾝ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ｲｶﾞｲ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ﾄｷ</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間が０～23、分が0～60以外の時</t>
+    <rPh sb="0" eb="2">
+      <t>ｼﾞｶﾝ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ﾌﾝ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ｲｶﾞｲ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ﾄｷ</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定した時間が現在の
+時間よりも後の場合</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>指定した時間が現在の
+時間よりも前の場合</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・支払い通知機能画面が再表示される
+・「正しい数値が入力されていません」を表示</t>
+    <rPh sb="1" eb="3">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・入力した情報をusersテーブルに保存
+・line_dayに翌日の日付を保存</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヨクジツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・入力した情報をusersテーブルに保存
+・line_dayに本日の日付を保存</t>
+    <rPh sb="37" eb="39">
+      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -2629,7 +2836,7 @@
     <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2737,6 +2944,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2752,7 +2967,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -3378,6 +3593,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3403,7 +3631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -3628,6 +3856,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3691,13 +3931,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3711,7 +3945,22 @@
     <cellStyle name="標準 2 4" xfId="4" xr:uid="{6E8443B2-E4A5-4A0C-B088-C9BDE0FC16C2}"/>
     <cellStyle name="標準 5" xfId="7" xr:uid="{3A8FBFE9-AA22-493C-8785-B2A47AD99255}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4068,20 +4317,20 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4453,44 +4702,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="89" t="s">
+      <c r="E6" s="94"/>
+      <c r="F6" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91" t="s">
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="80"/>
-      <c r="N6" s="81" t="s">
+      <c r="M6" s="84"/>
+      <c r="N6" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="83" t="s">
+      <c r="O6" s="87" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="86"/>
-      <c r="C7" s="88"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="61">
         <v>1</v>
       </c>
@@ -4506,17 +4755,17 @@
       <c r="H7" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="78"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="82"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="82"/>
-      <c r="O7" s="84"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="88"/>
     </row>
     <row r="8" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -4964,7 +5213,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5007,43 +5256,43 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90" t="s">
+      <c r="E6" s="94"/>
+      <c r="F6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="91" t="s">
+      <c r="G6" s="99"/>
+      <c r="H6" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="77" t="s">
+      <c r="J6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="79" t="s">
+      <c r="K6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81" t="s">
+      <c r="L6" s="84"/>
+      <c r="M6" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="83" t="s">
+      <c r="N6" s="87" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="86"/>
-      <c r="C7" s="88"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="63">
         <v>1</v>
       </c>
@@ -5056,17 +5305,17 @@
       <c r="G7" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="78"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="82"/>
       <c r="K7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="82"/>
-      <c r="N7" s="84"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="88"/>
     </row>
     <row r="8" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -5074,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>162</v>
@@ -5098,7 +5347,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>65</v>
@@ -5107,10 +5356,10 @@
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
       <c r="H9" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -5123,7 +5372,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>65</v>
@@ -5133,7 +5382,7 @@
       <c r="G10" s="57"/>
       <c r="H10" s="3"/>
       <c r="I10" s="53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>116</v>
@@ -5149,7 +5398,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>65</v>
@@ -5175,7 +5424,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>20</v>
@@ -5185,10 +5434,10 @@
       <c r="G12" s="57"/>
       <c r="H12" s="3"/>
       <c r="I12" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K12" s="23"/>
       <c r="L12" s="24"/>
@@ -5201,24 +5450,24 @@
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G13" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="97"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -5231,26 +5480,26 @@
         <v>7</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14" s="79" t="s">
         <v>243</v>
       </c>
-      <c r="G14" s="99" t="s">
-        <v>244</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I14" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K14" s="23"/>
       <c r="L14" s="24"/>
@@ -5263,26 +5512,26 @@
         <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G15" s="57" t="s">
         <v>96</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -5295,26 +5544,26 @@
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I16" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K16" s="23"/>
       <c r="L16" s="24"/>
@@ -5327,26 +5576,26 @@
         <v>10</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K17" s="23"/>
       <c r="L17" s="24"/>
@@ -5359,24 +5608,24 @@
         <v>11</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G18" s="57" t="s">
         <v>95</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="24"/>
@@ -5387,16 +5636,16 @@
   </sheetData>
   <autoFilter ref="B7:N7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="10">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5409,13 +5658,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D713CA-CC89-4BE7-B907-4D2E29DAC270}">
-  <dimension ref="B1:N19"/>
+  <dimension ref="B1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5426,75 +5675,76 @@
     <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36" style="1" customWidth="1"/>
-    <col min="10" max="10" width="39.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="2.625" style="1"/>
+    <col min="7" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36" style="1" customWidth="1"/>
+    <col min="11" max="11" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:14" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:14" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="2:14" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="2:14" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="16"/>
     </row>
-    <row r="6" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="85" t="s">
+    <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90" t="s">
+      <c r="E6" s="94"/>
+      <c r="F6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="91" t="s">
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="J6" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="77" t="s">
+      <c r="K6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="79" t="s">
+      <c r="L6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81" t="s">
+      <c r="M6" s="84"/>
+      <c r="N6" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="83" t="s">
+      <c r="O6" s="87" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="86"/>
-      <c r="C7" s="88"/>
+    <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="90"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="63">
         <v>1</v>
       </c>
@@ -5502,354 +5752,340 @@
         <v>2</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76" t="s">
+        <v>261</v>
+      </c>
+      <c r="I7" s="96"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="82"/>
-      <c r="N7" s="84"/>
-    </row>
-    <row r="8" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="N7" s="86"/>
+      <c r="O7" s="88"/>
+    </row>
+    <row r="8" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
         <f>ROW()-7</f>
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>162</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="57"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22" t="s">
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
         <f>ROW()-7</f>
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
-      <c r="H9" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K9" s="12"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="L9" s="12"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="17">
-        <f t="shared" ref="B10:B18" si="0">ROW()-7</f>
+        <f t="shared" ref="B10:B16" si="0">ROW()-7</f>
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="53" t="s">
+      <c r="F10" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K11" s="12"/>
+      <c r="F11" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="L11" s="12"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="12"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="66">
+        <v>1</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="G13" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="97"/>
-      <c r="I13" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="K13" s="12"/>
+      <c r="F13" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13" s="66">
+        <v>123</v>
+      </c>
+      <c r="H13" s="66">
+        <v>1</v>
+      </c>
+      <c r="I13" s="101" t="s">
+        <v>264</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>268</v>
+      </c>
       <c r="L13" s="12"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="12"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="G14" s="99" t="s">
-        <v>244</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I14" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="2:14" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="66">
+        <v>1</v>
+      </c>
+      <c r="H14" s="66">
+        <v>123</v>
+      </c>
+      <c r="I14" s="101" t="s">
+        <v>265</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="I15" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="K15" s="12"/>
+      <c r="F15" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="66">
+        <v>1</v>
+      </c>
+      <c r="H15" s="66">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>269</v>
+      </c>
       <c r="L15" s="12"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="2:14" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M15" s="12"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="66" t="s">
-        <v>245</v>
-      </c>
-      <c r="G16" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="I16" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="2:14" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="17">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="66" t="s">
-        <v>252</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I17" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="2:14" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="17">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="57" t="s">
-        <v>255</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="2:14" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="F16" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="66">
+        <v>1</v>
+      </c>
+      <c r="H16" s="66">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="B7:N7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B7:O7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="10">
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:H6"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
+  <conditionalFormatting sqref="I13:I14">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$G13="○"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$G13="×"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -5958,7 +6194,7 @@
       <c r="G8" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="98">
+      <c r="H8" s="78">
         <v>44008</v>
       </c>
       <c r="I8" s="31" t="s">
@@ -6128,7 +6364,7 @@
     </row>
     <row r="23" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -6136,16 +6372,16 @@
     </row>
     <row r="24" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C24" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>235</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>236</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>100</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -6338,44 +6574,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="89" t="s">
+      <c r="E6" s="94"/>
+      <c r="F6" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91" t="s">
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="80"/>
-      <c r="N6" s="81" t="s">
+      <c r="M6" s="84"/>
+      <c r="N6" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="83" t="s">
+      <c r="O6" s="87" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="86"/>
-      <c r="C7" s="88"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -6389,17 +6625,17 @@
         <v>7</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="78"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="82"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="82"/>
-      <c r="O7" s="84"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="88"/>
     </row>
     <row r="8" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -6537,44 +6773,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="89" t="s">
+      <c r="E6" s="94"/>
+      <c r="F6" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91" t="s">
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="80"/>
-      <c r="N6" s="81" t="s">
+      <c r="M6" s="84"/>
+      <c r="N6" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="83" t="s">
+      <c r="O6" s="87" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="86"/>
-      <c r="C7" s="88"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -6588,17 +6824,17 @@
         <v>50</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="78"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="82"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="82"/>
-      <c r="O7" s="84"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="88"/>
     </row>
     <row r="8" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -6894,45 +7130,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="89" t="s">
+      <c r="E6" s="94"/>
+      <c r="F6" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="91" t="s">
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="91" t="s">
+      <c r="K6" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="79" t="s">
+      <c r="M6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="80"/>
-      <c r="O6" s="91" t="s">
+      <c r="N6" s="84"/>
+      <c r="O6" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="93" t="s">
+      <c r="P6" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="86"/>
-      <c r="C7" s="88"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -6951,17 +7187,17 @@
       <c r="I7" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
       <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="94"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="98"/>
     </row>
     <row r="8" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -7537,45 +7773,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="89" t="s">
+      <c r="E6" s="94"/>
+      <c r="F6" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="91" t="s">
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="77" t="s">
+      <c r="L6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="79" t="s">
+      <c r="M6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="80"/>
-      <c r="O6" s="81" t="s">
+      <c r="N6" s="84"/>
+      <c r="O6" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="83" t="s">
+      <c r="P6" s="87" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="86"/>
-      <c r="C7" s="88"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -7594,17 +7830,17 @@
       <c r="I7" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="92"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="78"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="82"/>
       <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="82"/>
-      <c r="P7" s="84"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="88"/>
     </row>
     <row r="8" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -7906,45 +8142,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="89" t="s">
+      <c r="E6" s="94"/>
+      <c r="F6" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="91" t="s">
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="91" t="s">
+      <c r="K6" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="79" t="s">
+      <c r="M6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="80"/>
-      <c r="O6" s="91" t="s">
+      <c r="N6" s="84"/>
+      <c r="O6" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="93" t="s">
+      <c r="P6" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="86"/>
-      <c r="C7" s="88"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="59">
         <v>1</v>
       </c>
@@ -7963,17 +8199,17 @@
       <c r="I7" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
       <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="94"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="98"/>
     </row>
     <row r="8" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -8643,44 +8879,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="89" t="s">
+      <c r="E6" s="94"/>
+      <c r="F6" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91" t="s">
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="80"/>
-      <c r="N6" s="81" t="s">
+      <c r="M6" s="84"/>
+      <c r="N6" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="83" t="s">
+      <c r="O6" s="87" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="86"/>
-      <c r="C7" s="88"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="61">
         <v>1</v>
       </c>
@@ -8696,17 +8932,17 @@
       <c r="H7" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="78"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="82"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="82"/>
-      <c r="O7" s="84"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="88"/>
     </row>
     <row r="8" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -9043,42 +9279,42 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91" t="s">
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="80"/>
-      <c r="N6" s="81" t="s">
+      <c r="M6" s="84"/>
+      <c r="N6" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="83" t="s">
+      <c r="O6" s="87" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="86"/>
-      <c r="C7" s="88"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="61">
         <v>1</v>
       </c>
@@ -9094,17 +9330,17 @@
       <c r="H7" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="78"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="82"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="82"/>
-      <c r="O7" s="84"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="88"/>
     </row>
     <row r="8" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -9440,45 +9676,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="89" t="s">
+      <c r="E6" s="94"/>
+      <c r="F6" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="91" t="s">
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="77" t="s">
+      <c r="L6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="79" t="s">
+      <c r="M6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="80"/>
-      <c r="O6" s="81" t="s">
+      <c r="N6" s="84"/>
+      <c r="O6" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="83" t="s">
+      <c r="P6" s="87" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="86"/>
-      <c r="C7" s="88"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="61">
         <v>1</v>
       </c>
@@ -9497,17 +9733,17 @@
       <c r="I7" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="J7" s="92"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="78"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="82"/>
       <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="82"/>
-      <c r="P7" s="84"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="88"/>
     </row>
     <row r="8" spans="2:16" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">

--- a/10.結合テスト/総合テスト仕様書.xlsx
+++ b/10.結合テスト/総合テスト仕様書.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54A7F62-FF64-468C-960C-7500FC2D279A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1BFC82-A821-4395-9B25-3ABECF7838AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="195" windowWidth="13995" windowHeight="12585" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="630" windowWidth="13995" windowHeight="12585" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="9" r:id="rId1"/>
     <sheet name="トップ" sheetId="10" r:id="rId2"/>
-    <sheet name="ログイン" sheetId="11" r:id="rId3"/>
+    <sheet name="ログイン" sheetId="21" r:id="rId3"/>
     <sheet name="アカウント" sheetId="12" r:id="rId4"/>
     <sheet name="メニュー・お知らせ" sheetId="13" r:id="rId5"/>
     <sheet name="家計データ" sheetId="14" r:id="rId6"/>
@@ -63,10 +63,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="277">
   <si>
     <t>No</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>期待結果</t>
@@ -76,93 +76,93 @@
     <rPh sb="2" eb="4">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>実施日</t>
     <rPh sb="0" eb="3">
       <t>ジッシビ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
       <t>カンテン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>入力値</t>
     <rPh sb="0" eb="3">
       <t>ニュウリョクチ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ユーザID</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>パスワード</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>総合テスト</t>
     <rPh sb="0" eb="2">
       <t>ソウゴウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>未入力</t>
     <rPh sb="0" eb="3">
       <t>ミニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>テスト結果</t>
     <rPh sb="3" eb="5">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>結果</t>
     <rPh sb="0" eb="2">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>詳細</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>◆</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>データベース</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>前提条件①</t>
@@ -172,47 +172,47 @@
     <rPh sb="2" eb="4">
       <t>ジョウケン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>トップ画面</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>イベント</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面遷移</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>入力値</t>
     <rPh sb="0" eb="3">
       <t>ニュウリョクチ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>条件</t>
     <rPh sb="0" eb="2">
       <t>ジョウケン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>メニュー画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>前提条件：前提条件①シート参照</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「戻る」ボタンを押す</t>
@@ -222,30 +222,30 @@
     <rPh sb="8" eb="9">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「ログイン」ボタンを押す</t>
     <rPh sb="10" eb="11">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>〇users</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>user_id</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>password</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>user_name</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>改訂履歴</t>
@@ -255,21 +255,21 @@
     <rPh sb="2" eb="4">
       <t>リレキ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>版数</t>
     <rPh sb="0" eb="2">
       <t>ハンスウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>改訂日</t>
     <rPh sb="0" eb="2">
       <t>カイテイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>改訂内容</t>
@@ -279,7 +279,7 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>新規作成</t>
@@ -289,14 +289,14 @@
     <rPh sb="2" eb="4">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>田中</t>
     <rPh sb="0" eb="2">
       <t>タナカ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>「ログイン画面へ」ボタンを押す</t>
@@ -306,7 +306,7 @@
     <rPh sb="13" eb="14">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「アカウント作成」ボタンを押す</t>
@@ -316,78 +316,70 @@
     <rPh sb="13" eb="14">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>前提条件：なし</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>users_id</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>user_delete</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>last_login_date</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>line_token</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>line_time</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>line_notice_on</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>line_day</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>user</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>null</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>false</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログイン画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Password</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>taro</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>pass</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>aaa…
-(２０文字以上)</t>
-    <rPh sb="8" eb="12">
-      <t>モジイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・ログイン画面が再表示される
@@ -395,15 +387,7 @@
     <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>・ログイン画面が再表示される
-・「パスワードは必須です。」を表示</t>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・ログイン画面が再表示される
@@ -411,7 +395,7 @@
     <rPh sb="33" eb="35">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・ログイン画面が再表示される
@@ -419,7 +403,7 @@
     <rPh sb="32" eb="34">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・ログイン画面が再表示される
@@ -427,18 +411,18 @@
     <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ユーザ名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「登録」ボタンを押す</t>
@@ -448,7 +432,7 @@
     <rPh sb="8" eb="9">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・アカウント作成画面が再表示される
@@ -462,7 +446,7 @@
     <rPh sb="38" eb="40">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・アカウント作成画面が再表示される
@@ -479,7 +463,7 @@
     <rPh sb="37" eb="39">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・アカウント作成画面が再表示される
@@ -493,7 +477,7 @@
     <rPh sb="40" eb="42">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面遷移</t>
@@ -503,14 +487,14 @@
     <rPh sb="2" eb="4">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面遷移</t>
     <rPh sb="0" eb="4">
       <t>ガメンセンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・アカウント作成画面が再表示される
@@ -524,7 +508,7 @@
     <rPh sb="44" eb="46">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・アカウント作成確認画面に遷移</t>
@@ -540,14 +524,14 @@
     <rPh sb="13" eb="15">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ユーザIDがすでに登録されている</t>
     <rPh sb="9" eb="11">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・トップ画面に遷移</t>
@@ -557,7 +541,7 @@
     <rPh sb="7" eb="9">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>入力値の
@@ -568,7 +552,7 @@
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>入力の有無</t>
@@ -578,14 +562,14 @@
     <rPh sb="3" eb="5">
       <t>ウム</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Password確認</t>
     <rPh sb="8" eb="10">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・ユーザーIDに入力できない
@@ -597,7 +581,7 @@
     <rPh sb="20" eb="21">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・ユーザーIDに入力した値が表示される
@@ -615,7 +599,7 @@
     <rPh sb="25" eb="26">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「確定」ボタンを押す</t>
@@ -625,7 +609,7 @@
     <rPh sb="8" eb="9">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・アカウント作成確認画面が再表示される
@@ -645,7 +629,7 @@
     <rPh sb="44" eb="46">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アカウント
@@ -656,7 +640,7 @@
     <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アカウント
@@ -670,11 +654,11 @@
     <rPh sb="10" eb="12">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>b</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・アカウント作成確認画面が再表示される
@@ -694,7 +678,7 @@
     <rPh sb="40" eb="42">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・アカウント作成完了画面に遷移</t>
@@ -710,7 +694,7 @@
     <rPh sb="13" eb="15">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・アカウント作成画面に遷移</t>
@@ -723,7 +707,7 @@
     <rPh sb="11" eb="13">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>アカウント
@@ -737,14 +721,14 @@
     <rPh sb="10" eb="12">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>DB保存</t>
     <rPh sb="2" eb="4">
       <t>ホゾン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・入力された値をusersテーブルに追加
@@ -768,7 +752,7 @@
     <rPh sb="56" eb="58">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>３秒後にログイン画面に遷移</t>
@@ -781,62 +765,62 @@
     <rPh sb="11" eb="13">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>〇item</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>items_id</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>item_name</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>income_outgo</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>item_delete</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>食費</t>
     <rPh sb="0" eb="2">
       <t>ショクヒ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>交通費</t>
     <rPh sb="0" eb="3">
       <t>コウツウヒ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>光熱費</t>
     <rPh sb="0" eb="3">
       <t>コウネツヒ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>家賃</t>
     <rPh sb="0" eb="2">
       <t>ヤチン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>医療費</t>
     <rPh sb="0" eb="3">
       <t>イリョウヒ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>お知らせ表示</t>
@@ -846,31 +830,31 @@
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>〇notices_month_setting</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>notices_month_setting</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>notice_day</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>content</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>notice_on</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>notice_setting_delete</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>通知日</t>
@@ -880,21 +864,21 @@
     <rPh sb="2" eb="3">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>通知オン</t>
     <rPh sb="0" eb="2">
       <t>ツウチ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ユーザー管理ID</t>
     <rPh sb="4" eb="6">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>6/15と同日、または6/15を過ぎていないとき</t>
@@ -904,7 +888,7 @@
     <rPh sb="16" eb="17">
       <t>ス</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>6/15と同日、または6/16を過ぎているとき</t>
@@ -914,7 +898,7 @@
     <rPh sb="16" eb="17">
       <t>ス</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>通知内容</t>
@@ -924,14 +908,14 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>スマホ代</t>
     <rPh sb="3" eb="4">
       <t>ダイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「記入」ボタンを押す</t>
@@ -941,7 +925,7 @@
     <rPh sb="8" eb="9">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「閲覧」ボタンを押す</t>
@@ -951,7 +935,7 @@
     <rPh sb="8" eb="9">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「設定」ボタンを押す</t>
@@ -961,14 +945,14 @@
     <rPh sb="8" eb="9">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「ログアウト」ボタンを押す</t>
     <rPh sb="11" eb="12">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・メニュー画面に遷移</t>
@@ -978,7 +962,7 @@
     <rPh sb="8" eb="10">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・ログイン画面へ遷移する</t>
@@ -988,7 +972,7 @@
     <rPh sb="8" eb="10">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・トップ画面へ遷移する</t>
@@ -998,14 +982,14 @@
     <rPh sb="7" eb="9">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・「お知らせはありません」を表示</t>
     <rPh sb="3" eb="4">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・「15日のスマホ代が未入力です」を表示</t>
@@ -1018,7 +1002,7 @@
     <rPh sb="11" eb="14">
       <t>ミニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・記入画面に遷移</t>
@@ -1031,7 +1015,7 @@
     <rPh sb="6" eb="8">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・閲覧画面に遷移</t>
@@ -1044,7 +1028,7 @@
     <rPh sb="6" eb="8">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・設定画面に遷移</t>
@@ -1057,7 +1041,7 @@
     <rPh sb="6" eb="8">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・セッションの全破棄
@@ -1068,7 +1052,7 @@
     <rPh sb="18" eb="20">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・支出画面が表示される</t>
@@ -1081,7 +1065,7 @@
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>画面表示切替</t>
@@ -1094,7 +1078,7 @@
     <rPh sb="4" eb="6">
       <t>キリカエ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>初期表示</t>
@@ -1104,7 +1088,7 @@
     <rPh sb="2" eb="4">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「支出」ボタンを押す</t>
@@ -1114,7 +1098,7 @@
     <rPh sb="8" eb="9">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「収入」ボタンを押す</t>
@@ -1124,7 +1108,7 @@
     <rPh sb="8" eb="9">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>支出画面表示時</t>
@@ -1140,7 +1124,7 @@
     <rPh sb="6" eb="7">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>収入画面表示時</t>
@@ -1156,7 +1140,7 @@
     <rPh sb="6" eb="7">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・収入画面を表示</t>
@@ -1169,7 +1153,7 @@
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・支出画面を表示</t>
@@ -1182,7 +1166,7 @@
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プルダウンの
@@ -1190,7 +1174,7 @@
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>日付の指定</t>
@@ -1200,11 +1184,11 @@
     <rPh sb="3" eb="5">
       <t>シテイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カレンダーのマークをクリックする</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・カレンダーを表示する
@@ -1218,21 +1202,21 @@
     <rPh sb="23" eb="25">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>金額</t>
     <rPh sb="0" eb="2">
       <t>キンガク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・DBから項目名を取得
@@ -1255,7 +1239,7 @@
     <rPh sb="23" eb="25">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>家計データ
@@ -1272,7 +1256,7 @@
     <rPh sb="10" eb="12">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>家計データ
@@ -1286,7 +1270,7 @@
     <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・家計データ記入確認画面に遷移</t>
@@ -1305,7 +1289,7 @@
     <rPh sb="13" eb="15">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「項目の編集」ボタンを押す</t>
@@ -1318,7 +1302,7 @@
     <rPh sb="11" eb="12">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・項目編集画面に遷移</t>
@@ -1334,7 +1318,7 @@
     <rPh sb="8" eb="10">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・収支が表示される
@@ -1361,7 +1345,7 @@
     <rPh sb="27" eb="29">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「確認」ボタンを押す</t>
@@ -1371,7 +1355,7 @@
     <rPh sb="8" eb="9">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・家計データ記入画面の遷移</t>
@@ -1387,14 +1371,14 @@
     <rPh sb="11" eb="13">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・家計データ記入完了画面に遷移</t>
     <rPh sb="8" eb="10">
       <t>カンリョウガメンセンイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>家計データ
@@ -1411,28 +1395,28 @@
     <rPh sb="10" eb="12">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「メニュー」ボタンを押す</t>
     <rPh sb="10" eb="11">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「2020年06月の月ごと表示」ボタンを押す</t>
     <rPh sb="20" eb="21">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「06月26日の日ごと表示」ボタンを押す</t>
     <rPh sb="18" eb="19">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・家計データ記入画面が再表示される
@@ -1443,17 +1427,17 @@
     <rPh sb="6" eb="8">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・家計データ記入画面が再表示される
 ・「dateは必須です」を表示</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・家計データ記入画面が再表示される
 ・「金額は必須です」を表示</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・日付の表示を行う
@@ -1465,7 +1449,7 @@
     <rPh sb="51" eb="53">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・メニュー画面の遷移</t>
@@ -1475,7 +1459,7 @@
     <rPh sb="8" eb="10">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・記入画面の遷移</t>
@@ -1488,7 +1472,7 @@
     <rPh sb="6" eb="8">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・日付に対応した月表示画面の遷移</t>
@@ -1510,7 +1494,7 @@
     <rPh sb="14" eb="16">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・日付に対応した日表示画面の遷移</t>
@@ -1532,14 +1516,14 @@
     <rPh sb="14" eb="16">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>初期表示</t>
     <rPh sb="0" eb="4">
       <t>ショキヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>項目編集
@@ -1553,7 +1537,7 @@
     <rPh sb="5" eb="7">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>メニュー画面に遷移</t>
@@ -1563,7 +1547,7 @@
     <rPh sb="7" eb="9">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>家計データ記入画面に遷移</t>
@@ -1579,21 +1563,21 @@
     <rPh sb="10" eb="12">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>収支</t>
     <rPh sb="0" eb="2">
       <t>シュウシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>支出</t>
     <rPh sb="0" eb="2">
       <t>シシュツ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・選択した収支の項目を表示される
@@ -1622,7 +1606,7 @@
     <rPh sb="29" eb="31">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「追加」ボタンを押す</t>
@@ -1632,7 +1616,7 @@
     <rPh sb="8" eb="9">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・項目編集画面が再表示される
@@ -1652,14 +1636,14 @@
     <rPh sb="21" eb="23">
       <t>ヒッス</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>娯楽費</t>
     <rPh sb="0" eb="3">
       <t>ゴラクヒ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">・入力した項目名をitemテーブルに追加
@@ -1671,7 +1655,7 @@
     <rPh sb="24" eb="26">
       <t>ヘンシュウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「削除」ボタンを押す</t>
@@ -1681,7 +1665,7 @@
     <rPh sb="8" eb="9">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・項目編集画面が再表示される
@@ -1695,7 +1679,7 @@
     <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・選択した項目をitemテーブルから削除</t>
@@ -1708,14 +1692,14 @@
     <rPh sb="18" eb="20">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>月表示画面</t>
@@ -1728,7 +1712,7 @@
     <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・該当する年を表示
@@ -1757,28 +1741,28 @@
     <rPh sb="23" eb="25">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>年</t>
     <rPh sb="0" eb="1">
       <t>トシ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
       <t>ツキ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>月を選択する</t>
@@ -1788,7 +1772,7 @@
     <rPh sb="2" eb="4">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・選択した月のカレンダー画面に遷移</t>
@@ -1804,7 +1788,7 @@
     <rPh sb="15" eb="17">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カレンダー
@@ -1812,7 +1796,7 @@
     <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・月表示画面に遷移</t>
@@ -1828,7 +1812,7 @@
     <rPh sb="7" eb="9">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>日データの
@@ -1842,7 +1826,7 @@
     <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・該当する月を表示
@@ -1898,7 +1882,7 @@
     <rPh sb="62" eb="64">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・カレンダー画面に遷移</t>
@@ -1908,7 +1892,7 @@
     <rPh sb="9" eb="11">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>日データ
@@ -1922,21 +1906,21 @@
     <rPh sb="7" eb="9">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>DBにデータが存在するとき</t>
     <rPh sb="7" eb="9">
       <t>ソンザイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>DBにデータが存在しないとき</t>
     <rPh sb="7" eb="9">
       <t>ソンザイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・該当する日を表示
@@ -1985,36 +1969,36 @@
     <rPh sb="54" eb="56">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・該当する日を表示
 ・選択した日の支出を項目ごとに表示
 ・項目ごとの割合を円グラフに表示</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>〇money</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>money_id</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>input_date</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>amount</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>修正金額内容</t>
@@ -2027,7 +2011,7 @@
     <rPh sb="4" eb="6">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・選択した日を表示する
@@ -2048,11 +2032,11 @@
     <rPh sb="30" eb="32">
       <t>キンガク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>入力値</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・日データ修正画面が再表示される
@@ -2078,7 +2062,7 @@
     <rPh sb="33" eb="35">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・日データ閲覧画面に遷移</t>
@@ -2091,7 +2075,7 @@
     <rPh sb="10" eb="12">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・日データ修正画面が再表示される
@@ -2104,7 +2088,7 @@
     <rPh sb="32" eb="34">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ユーザー情報修正入力画面</t>
@@ -2120,7 +2104,7 @@
     <rPh sb="10" eb="12">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「ユーザー名変更」ボタン押下</t>
@@ -2133,37 +2117,37 @@
     <rPh sb="12" eb="14">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>「パスワード変更」ボタン押下</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ユーザー入力</t>
     <rPh sb="4" eb="6">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>PASS</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>再PASS</t>
     <rPh sb="0" eb="1">
       <t>サイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>チェック</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>食費
@@ -2174,7 +2158,7 @@
     <rPh sb="3" eb="6">
       <t>コウツウヒ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「修正」ボタン押下</t>
@@ -2193,14 +2177,14 @@
     <rPh sb="10" eb="12">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「戻る」ボタン押下</t>
     <rPh sb="1" eb="2">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・ユーザー入力の入力フォームが表示される</t>
@@ -2213,11 +2197,11 @@
     <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>・PASSの入力フォームが表示される</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>・ユーザー情報修正確認画面に遷移</t>
@@ -2236,7 +2220,7 @@
     <rPh sb="14" eb="16">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>・設定画面に遷移</t>
@@ -2246,12 +2230,12 @@
     <rPh sb="6" eb="8">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・入力したパスワードが表示される
 ・入力したユーザー名が表示される</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ユーザー
@@ -2269,7 +2253,7 @@
     <rPh sb="12" eb="14">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログインユーザーのパスワードと入力したパスワードが不一致</t>
@@ -2279,7 +2263,7 @@
     <rPh sb="25" eb="28">
       <t>フイッチ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ログインユーザーのパスワードと入力したパスワードが一致</t>
@@ -2289,7 +2273,7 @@
     <rPh sb="25" eb="27">
       <t>イッチ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・ユーザー情報修正画面が再表示される
@@ -2300,12 +2284,12 @@
     <rPh sb="25" eb="26">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>・ユーザー情報修正画面が再表示される
 ・「パスワード入力されていません」を表示</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>・ユーザー情報修正画面が再表示される
@@ -2313,7 +2297,7 @@
     <rPh sb="31" eb="33">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>・ユーザー情報修正画面が再表示される
@@ -2321,7 +2305,7 @@
     <rPh sb="26" eb="28">
       <t>マチガ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>・ユーザー削除完了画面に遷移</t>
@@ -2337,7 +2321,7 @@
     <rPh sb="12" eb="14">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>・ユーザー情報修正入力画面に遷移</t>
@@ -2356,34 +2340,34 @@
     <rPh sb="14" eb="16">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>「メニュー」ボタン押下</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「保存」ボタン押下</t>
     <rPh sb="1" eb="3">
       <t>ホゾン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>〇notices_month</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>notices_month_id</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>notice_date</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>notice_delete</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・支払い通知機能画面が再表示される
@@ -2415,14 +2399,14 @@
     <rPh sb="57" eb="59">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>「追加」ボタン押下</t>
     <rPh sb="1" eb="3">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・支払い通知一覧を表示</t>
@@ -2438,7 +2422,7 @@
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>notices_month_settingテーブルにログインユーザーのusers_idに対応した情報があれば</t>
@@ -2448,18 +2432,18 @@
     <rPh sb="48" eb="50">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>スマホ</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1日</t>
     <rPh sb="1" eb="2">
       <t>ニチ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>aaa…
@@ -2470,14 +2454,14 @@
     <rPh sb="10" eb="12">
       <t>イジョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>2日</t>
     <rPh sb="1" eb="2">
       <t>ニチ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・支払い通知機能画面が再表示される
@@ -2497,7 +2481,7 @@
     <rPh sb="25" eb="27">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・支払い通知機能画面が再表示される
@@ -2520,7 +2504,7 @@
     <rPh sb="29" eb="31">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>２１文字以上入力したとき</t>
@@ -2533,7 +2517,7 @@
     <rPh sb="6" eb="8">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>日付が重複したとき</t>
@@ -2543,7 +2527,7 @@
     <rPh sb="3" eb="5">
       <t>ジュウフク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>項目が重複したとき</t>
@@ -2553,7 +2537,7 @@
     <rPh sb="3" eb="5">
       <t>ジュウフク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>日付・項目が重複したとき</t>
@@ -2566,14 +2550,14 @@
     <rPh sb="6" eb="8">
       <t>ジュウフク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>１日</t>
     <rPh sb="1" eb="2">
       <t>ニチ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・支払い通知機能画面が再表示される
@@ -2587,19 +2571,19 @@
     <rPh sb="55" eb="57">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・支払い通知機能画面が再表示される
 ・入力した項目と日付をnotices_month_settingテーブルに追加</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>３日</t>
     <rPh sb="1" eb="2">
       <t>ニチ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>支払い通知設定画面</t>
@@ -2615,7 +2599,7 @@
     <rPh sb="7" eb="9">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>LINE通知
@@ -2629,14 +2613,14 @@
     <rPh sb="9" eb="11">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>usersテーブルにログインユーザーのusers_idに対応したline_tokenがあれば</t>
     <rPh sb="28" eb="30">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・入力フォームにline_tokenの値を入力する</t>
@@ -2649,15 +2633,15 @@
     <rPh sb="21" eb="23">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>トークン</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>AZ・・・</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>時間（時）</t>
@@ -2667,7 +2651,7 @@
     <rPh sb="3" eb="4">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・支払い通知機能画面が再表示される
@@ -2687,7 +2671,7 @@
     <rPh sb="36" eb="38">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・支払い通知機能画面が再表示される
@@ -2707,7 +2691,7 @@
     <rPh sb="39" eb="41">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>時間が０～23、分が0～59以外の時</t>
@@ -2723,7 +2707,7 @@
     <rPh sb="17" eb="18">
       <t>ﾄｷ</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>時間が０～23、分が0～60以外の時</t>
@@ -2739,7 +2723,7 @@
     <rPh sb="17" eb="18">
       <t>ﾄｷ</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>指定した時間が現在の
@@ -2756,7 +2740,7 @@
     <rPh sb="11" eb="13">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>指定した時間が現在の
@@ -2776,7 +2760,7 @@
     <rPh sb="16" eb="17">
       <t>マエ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・支払い通知機能画面が再表示される
@@ -2796,7 +2780,7 @@
     <rPh sb="37" eb="39">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・入力した情報をusersテーブルに保存
@@ -2816,7 +2800,7 @@
     <rPh sb="37" eb="39">
       <t>ホゾン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>・入力した情報をusersテーブルに保存
@@ -2824,7 +2808,63 @@
     <rPh sb="37" eb="39">
       <t>ホゾン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>・ログイン画面が再表示される
+・「ユーザーIDは必須です。」を表示
+・「パスワードは必須です。」を表示</t>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>入力値</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「ログイン」ボタンを押す</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>・ログイン画面が再表示される
+・「パスワードは必須です。」を表示</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(21文字以上の文字列)</t>
+    <rPh sb="3" eb="7">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(21文字以上の文字列)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「ログイン」ボタンを押す</t>
+  </si>
+  <si>
+    <t>・ログイン画面が再表示される
+・「文字数は20文字以内です」を表示</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -2836,12 +2876,20 @@
     <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2967,7 +3015,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -3606,9 +3654,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3618,324 +3769,513 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="56" fontId="8" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="8" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="40" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="42" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -3943,6 +4283,8 @@
     <cellStyle name="標準 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="標準 2 3 2" xfId="6" xr:uid="{8DD1E67D-0BFF-4ADE-BC4C-84E6ACF3441C}"/>
     <cellStyle name="標準 2 4" xfId="4" xr:uid="{6E8443B2-E4A5-4A0C-B088-C9BDE0FC16C2}"/>
+    <cellStyle name="標準 2 4 2" xfId="9" xr:uid="{3C6799A0-A8A9-48B3-B2C3-F49567F14EE8}"/>
+    <cellStyle name="標準 2 5" xfId="8" xr:uid="{04D2907F-C6D5-4088-A490-7839DA232C50}"/>
     <cellStyle name="標準 5" xfId="7" xr:uid="{3A8FBFE9-AA22-493C-8785-B2A47AD99255}"/>
   </cellStyles>
   <dxfs count="2">
@@ -4317,20 +4659,20 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4641,7 +4983,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:E3"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
@@ -4702,44 +5044,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="93" t="s">
+      <c r="E6" s="95"/>
+      <c r="F6" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95" t="s">
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85" t="s">
+      <c r="M6" s="85"/>
+      <c r="N6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="87" t="s">
+      <c r="O6" s="88" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="90"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="61">
         <v>1</v>
       </c>
@@ -4747,25 +5089,25 @@
         <v>2</v>
       </c>
       <c r="F7" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="G7" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="I7" s="100"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="82"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="86"/>
-      <c r="O7" s="88"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="89"/>
     </row>
     <row r="8" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -4773,21 +5115,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
       <c r="G8" s="57"/>
       <c r="H8" s="66"/>
       <c r="I8" s="68" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L8" s="23"/>
       <c r="M8" s="24"/>
@@ -4800,21 +5142,21 @@
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="20"/>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
       <c r="I9" s="69" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J9" s="53"/>
       <c r="K9" s="72" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -4827,7 +5169,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>20</v>
@@ -4844,10 +5186,10 @@
       </c>
       <c r="I10" s="69"/>
       <c r="J10" s="53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K10" s="73" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="24"/>
@@ -4860,7 +5202,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>20</v>
@@ -4877,10 +5219,10 @@
       </c>
       <c r="I11" s="70"/>
       <c r="J11" s="53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K11" s="75" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -4893,7 +5235,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>20</v>
@@ -4910,10 +5252,10 @@
       </c>
       <c r="I12" s="70"/>
       <c r="J12" s="53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K12" s="75" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
@@ -4926,7 +5268,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>20</v>
@@ -4939,14 +5281,14 @@
         <v>46</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I13" s="70"/>
       <c r="J13" s="53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K13" s="75" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -4959,13 +5301,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>46</v>
@@ -4978,10 +5320,10 @@
       </c>
       <c r="I14" s="70"/>
       <c r="J14" s="53" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K14" s="74" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
@@ -4994,10 +5336,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="20"/>
@@ -5005,10 +5347,10 @@
       <c r="H15" s="20"/>
       <c r="I15" s="70"/>
       <c r="J15" s="53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
@@ -5021,10 +5363,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="20"/>
@@ -5033,7 +5375,7 @@
       <c r="I16" s="70"/>
       <c r="J16" s="53"/>
       <c r="K16" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
@@ -5046,10 +5388,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="20"/>
@@ -5057,10 +5399,10 @@
       <c r="H17" s="20"/>
       <c r="I17" s="70"/>
       <c r="J17" s="53" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K17" s="74" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
@@ -5073,7 +5415,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>20</v>
@@ -5087,7 +5429,7 @@
       <c r="I18" s="70"/>
       <c r="J18" s="53"/>
       <c r="K18" s="75" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
@@ -5100,7 +5442,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>20</v>
@@ -5108,15 +5450,15 @@
       <c r="E19" s="3"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J19" s="53"/>
       <c r="K19" s="75" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
@@ -5129,13 +5471,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="20" t="s">
@@ -5143,11 +5485,11 @@
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J20" s="53"/>
       <c r="K20" s="72" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
@@ -5160,10 +5502,10 @@
         <v>14</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="20"/>
@@ -5171,10 +5513,10 @@
       <c r="H21" s="20"/>
       <c r="I21" s="70"/>
       <c r="J21" s="53" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K21" s="74" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
@@ -5196,7 +5538,7 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -5256,43 +5598,43 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94" t="s">
+      <c r="E6" s="95"/>
+      <c r="F6" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="99"/>
-      <c r="H6" s="95" t="s">
+      <c r="G6" s="100"/>
+      <c r="H6" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="83" t="s">
+      <c r="K6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="84"/>
-      <c r="M6" s="85" t="s">
+      <c r="L6" s="85"/>
+      <c r="M6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="87" t="s">
+      <c r="N6" s="88" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="90"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="63">
         <v>1</v>
       </c>
@@ -5300,22 +5642,22 @@
         <v>2</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G7" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="82"/>
+        <v>174</v>
+      </c>
+      <c r="H7" s="97"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="83"/>
       <c r="K7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="86"/>
-      <c r="N7" s="88"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="89"/>
     </row>
     <row r="8" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -5323,10 +5665,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="57"/>
@@ -5334,7 +5676,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K8" s="23"/>
       <c r="L8" s="24"/>
@@ -5347,19 +5689,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
       <c r="H9" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -5372,20 +5714,20 @@
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
       <c r="H10" s="3"/>
       <c r="I10" s="53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K10" s="23"/>
       <c r="L10" s="24"/>
@@ -5398,20 +5740,20 @@
         <v>4</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="57"/>
       <c r="G11" s="57"/>
       <c r="H11" s="3"/>
       <c r="I11" s="53" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -5424,7 +5766,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>20</v>
@@ -5434,10 +5776,10 @@
       <c r="G12" s="57"/>
       <c r="H12" s="3"/>
       <c r="I12" s="53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K12" s="23"/>
       <c r="L12" s="24"/>
@@ -5450,24 +5792,24 @@
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="66" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G13" s="57" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="77"/>
       <c r="I13" s="53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -5480,26 +5822,26 @@
         <v>7</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="66" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G14" s="79" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="J14" s="22" t="s">
         <v>243</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I14" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>245</v>
       </c>
       <c r="K14" s="23"/>
       <c r="L14" s="24"/>
@@ -5512,26 +5854,26 @@
         <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="66" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -5544,26 +5886,26 @@
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="66" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I16" s="53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K16" s="23"/>
       <c r="L16" s="24"/>
@@ -5576,26 +5918,26 @@
         <v>10</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="J17" s="22" t="s">
         <v>251</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="I17" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>253</v>
       </c>
       <c r="K17" s="23"/>
       <c r="L17" s="24"/>
@@ -5608,24 +5950,24 @@
         <v>11</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="57" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G18" s="57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="24"/>
@@ -5636,18 +5978,18 @@
   </sheetData>
   <autoFilter ref="B7:N7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="10">
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -5660,7 +6002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D713CA-CC89-4BE7-B907-4D2E29DAC270}">
   <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" ySplit="7" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -5707,44 +6049,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94" t="s">
+      <c r="E6" s="95"/>
+      <c r="F6" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95" t="s">
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85" t="s">
+      <c r="M6" s="85"/>
+      <c r="N6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="87" t="s">
+      <c r="O6" s="88" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="90"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="63">
         <v>1</v>
       </c>
@@ -5752,23 +6094,23 @@
         <v>2</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G7" s="76"/>
       <c r="H7" s="76" t="s">
-        <v>261</v>
-      </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="82"/>
+        <v>259</v>
+      </c>
+      <c r="I7" s="97"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="86"/>
-      <c r="O7" s="88"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="89"/>
     </row>
     <row r="8" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -5776,10 +6118,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="57"/>
@@ -5788,7 +6130,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L8" s="23"/>
       <c r="M8" s="24"/>
@@ -5801,33 +6143,33 @@
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
       <c r="I9" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="9"/>
       <c r="O9" s="8"/>
     </row>
-    <row r="10" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="17">
         <f t="shared" ref="B10:B16" si="0">ROW()-7</f>
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>20</v>
@@ -5844,10 +6186,10 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="24"/>
@@ -5860,14 +6202,14 @@
         <v>4</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G11" s="57" t="s">
         <v>47</v>
@@ -5877,10 +6219,10 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -5893,14 +6235,14 @@
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G12" s="66">
         <v>1</v>
@@ -5910,10 +6252,10 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L12" s="23"/>
       <c r="M12" s="24"/>
@@ -5926,14 +6268,14 @@
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G13" s="66">
         <v>123</v>
@@ -5941,14 +6283,14 @@
       <c r="H13" s="66">
         <v>1</v>
       </c>
-      <c r="I13" s="101" t="s">
-        <v>264</v>
+      <c r="I13" s="80" t="s">
+        <v>262</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -5961,14 +6303,14 @@
         <v>7</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G14" s="66">
         <v>1</v>
@@ -5976,14 +6318,14 @@
       <c r="H14" s="66">
         <v>123</v>
       </c>
-      <c r="I14" s="101" t="s">
-        <v>265</v>
+      <c r="I14" s="80" t="s">
+        <v>263</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L14" s="23"/>
       <c r="M14" s="24"/>
@@ -5996,14 +6338,14 @@
         <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G15" s="66">
         <v>1</v>
@@ -6012,13 +6354,13 @@
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>267</v>
-      </c>
-      <c r="J15" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
@@ -6031,14 +6373,14 @@
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G16" s="66">
         <v>1</v>
@@ -6047,13 +6389,13 @@
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L16" s="23"/>
       <c r="M16" s="24"/>
@@ -6077,7 +6419,7 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <conditionalFormatting sqref="I13:I14">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$G13="○"</formula>
@@ -6212,7 +6554,7 @@
     </row>
     <row r="10" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -6225,19 +6567,19 @@
     </row>
     <row r="11" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C11" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>90</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -6248,7 +6590,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F12" s="29">
         <v>2</v>
@@ -6265,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F13" s="29">
         <v>2</v>
@@ -6282,7 +6624,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F14" s="29">
         <v>2</v>
@@ -6299,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F15" s="29">
         <v>2</v>
@@ -6316,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F16" s="29">
         <v>1</v>
@@ -6327,7 +6669,7 @@
     </row>
     <row r="18" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -6336,16 +6678,16 @@
     </row>
     <row r="19" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C19" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -6356,7 +6698,7 @@
         <v>44008</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F20" s="29">
         <v>2000</v>
@@ -6364,7 +6706,7 @@
     </row>
     <row r="23" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -6372,16 +6714,16 @@
     </row>
     <row r="24" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C24" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="26" t="s">
         <v>234</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -6428,7 +6770,7 @@
     </row>
     <row r="30" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -6436,22 +6778,22 @@
     </row>
     <row r="31" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C31" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="H31" s="26" t="s">
         <v>102</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -6465,7 +6807,7 @@
         <v>15</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G32" s="30" t="b">
         <v>1</v>
@@ -6485,7 +6827,7 @@
         <v>20</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G33" s="30" t="b">
         <v>0</v>
@@ -6505,7 +6847,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G34" s="30" t="b">
         <v>0</v>
@@ -6515,7 +6857,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
@@ -6574,44 +6916,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="93" t="s">
+      <c r="E6" s="95"/>
+      <c r="F6" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95" t="s">
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85" t="s">
+      <c r="M6" s="85"/>
+      <c r="N6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="87" t="s">
+      <c r="O6" s="88" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="90"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -6625,17 +6967,17 @@
         <v>7</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="82"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="86"/>
-      <c r="O7" s="88"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="89"/>
     </row>
     <row r="8" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -6657,7 +6999,7 @@
         <v>36</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L8" s="23"/>
       <c r="M8" s="24"/>
@@ -6684,7 +7026,7 @@
         <v>37</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -6714,7 +7056,7 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -6724,338 +7066,398 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835273CB-F7B5-44F2-9CD0-5C10B667170D}">
-  <dimension ref="B1:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C30A80-62DF-422D-B9F1-39B5096616A2}">
+  <dimension ref="B1:O21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="1"/>
-    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="10.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36" style="1" customWidth="1"/>
-    <col min="11" max="11" width="39.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="2.625" style="1"/>
+    <col min="1" max="1" width="2.625" style="102"/>
+    <col min="2" max="2" width="4.375" style="102" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="102" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="102" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="102" customWidth="1"/>
+    <col min="6" max="8" width="10.625" style="102" customWidth="1"/>
+    <col min="9" max="9" width="29" style="102" customWidth="1"/>
+    <col min="10" max="10" width="36" style="102" customWidth="1"/>
+    <col min="11" max="11" width="39.875" style="102" customWidth="1"/>
+    <col min="12" max="12" width="5.125" style="102" customWidth="1"/>
+    <col min="13" max="13" width="23.625" style="102" customWidth="1"/>
+    <col min="14" max="14" width="13.125" style="102" customWidth="1"/>
+    <col min="15" max="15" width="7.625" style="102" customWidth="1"/>
+    <col min="16" max="16384" width="2.625" style="102"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="103"/>
     </row>
     <row r="3" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="103"/>
     </row>
     <row r="5" spans="2:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="16"/>
+      <c r="B5" s="104"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="93" t="s">
+      <c r="E6" s="108"/>
+      <c r="F6" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95" t="s">
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85" t="s">
+      <c r="M6" s="113"/>
+      <c r="N6" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="87" t="s">
+      <c r="O6" s="114" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="90"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="34">
+      <c r="B7" s="115"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="117">
         <v>1</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="117">
         <v>2</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="11" t="s">
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="86"/>
-      <c r="O7" s="88"/>
-    </row>
-    <row r="8" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="17">
+      <c r="N7" s="121"/>
+      <c r="O7" s="124"/>
+    </row>
+    <row r="8" spans="2:15" ht="41.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="125">
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="127"/>
+      <c r="F8" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53" t="s">
+      <c r="H8" s="129"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="7">
+      <c r="K8" s="131" t="s">
+        <v>269</v>
+      </c>
+      <c r="L8" s="132"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="135"/>
+    </row>
+    <row r="9" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="136">
         <f>ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20" t="s">
+      <c r="E9" s="138"/>
+      <c r="F9" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="140"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="142" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="145"/>
+    </row>
+    <row r="10" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="146">
+        <v>3</v>
+      </c>
+      <c r="C10" s="147" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="147" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="147"/>
+      <c r="F10" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53" t="s">
+      <c r="H10" s="148"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149" t="s">
+        <v>271</v>
+      </c>
+      <c r="K10" s="147" t="s">
+        <v>272</v>
+      </c>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="152"/>
+    </row>
+    <row r="11" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="153">
+        <f t="shared" ref="B11:B16" si="0">ROW()-7</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="155"/>
+      <c r="F11" s="156" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="156" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="157"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="17">
-        <f t="shared" ref="B10:B14" si="0">ROW()-7</f>
-        <v>3</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="17">
+      <c r="K11" s="158" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="159"/>
+      <c r="M11" s="160"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="145"/>
+    </row>
+    <row r="12" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="136">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="20" t="s">
+      <c r="E12" s="155"/>
+      <c r="F12" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53" t="s">
+      <c r="H12" s="140"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="7">
+      <c r="K12" s="158" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="145"/>
+    </row>
+    <row r="13" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="153">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="155"/>
+      <c r="F13" s="155" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="H13" s="140"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="158" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="159"/>
+      <c r="M13" s="160"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="145"/>
+    </row>
+    <row r="14" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="161">
+        <v>7</v>
+      </c>
+      <c r="C14" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53" t="s">
+      <c r="G14" s="155" t="s">
+        <v>274</v>
+      </c>
+      <c r="H14" s="162"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141" t="s">
+        <v>275</v>
+      </c>
+      <c r="K14" s="158" t="s">
+        <v>276</v>
+      </c>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="144"/>
+      <c r="O14" s="145"/>
+    </row>
+    <row r="15" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="136">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="155" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="157"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="7">
+      <c r="K15" s="158" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="144"/>
+      <c r="O15" s="145"/>
+    </row>
+    <row r="16" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="136">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53" t="s">
+      <c r="D16" s="155" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="155"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="2:15" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="2:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="K16" s="158" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="144"/>
+      <c r="O16" s="145"/>
+    </row>
+    <row r="17" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="B7:O7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="10">
@@ -7070,7 +7472,7 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -7130,45 +7532,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="93" t="s">
+      <c r="E6" s="95"/>
+      <c r="F6" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95" t="s">
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="95" t="s">
+      <c r="K6" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="95" t="s">
+      <c r="L6" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="84"/>
-      <c r="O6" s="95" t="s">
+      <c r="N6" s="85"/>
+      <c r="O6" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="97" t="s">
+      <c r="P6" s="98" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="90"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -7179,25 +7581,25 @@
         <v>6</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>50</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
+        <v>71</v>
+      </c>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
       <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="96"/>
-      <c r="P7" s="98"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="99"/>
     </row>
     <row r="8" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -7205,7 +7607,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>20</v>
@@ -7223,10 +7625,10 @@
       <c r="I8" s="55"/>
       <c r="J8" s="53"/>
       <c r="K8" s="53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M8" s="23"/>
       <c r="N8" s="24"/>
@@ -7239,14 +7641,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>9</v>
@@ -7257,10 +7659,10 @@
       <c r="I9" s="55"/>
       <c r="J9" s="53"/>
       <c r="K9" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -7273,30 +7675,30 @@
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="55"/>
       <c r="J10" s="53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K10" s="53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M10" s="23"/>
       <c r="N10" s="24"/>
@@ -7309,7 +7711,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>20</v>
@@ -7319,18 +7721,18 @@
         <v>46</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I11" s="56"/>
       <c r="J11" s="53"/>
       <c r="K11" s="53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
@@ -7343,30 +7745,30 @@
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I12" s="56"/>
       <c r="J12" s="53"/>
       <c r="K12" s="53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M12" s="23"/>
       <c r="N12" s="24"/>
@@ -7379,10 +7781,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
@@ -7394,7 +7796,7 @@
         <v>24</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
@@ -7407,30 +7809,30 @@
         <v>7</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I14" s="56"/>
       <c r="J14" s="53"/>
       <c r="K14" s="53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M14" s="23"/>
       <c r="N14" s="24"/>
@@ -7443,26 +7845,26 @@
         <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I15" s="56"/>
       <c r="J15" s="53"/>
       <c r="K15" s="54"/>
       <c r="L15" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
@@ -7475,26 +7877,26 @@
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I16" s="56"/>
       <c r="J16" s="53"/>
       <c r="K16" s="53"/>
       <c r="L16" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M16" s="23"/>
       <c r="N16" s="24"/>
@@ -7507,30 +7909,30 @@
         <v>10</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J17" s="53"/>
       <c r="K17" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -7543,30 +7945,30 @@
         <v>11</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J18" s="53"/>
       <c r="K18" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M18" s="23"/>
       <c r="N18" s="24"/>
@@ -7579,30 +7981,30 @@
         <v>12</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J19" s="53"/>
       <c r="K19" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
@@ -7615,10 +8017,10 @@
         <v>13</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="20"/>
@@ -7630,7 +8032,7 @@
         <v>24</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -7643,28 +8045,28 @@
         <v>14</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J21" s="53"/>
       <c r="K21" s="53"/>
       <c r="L21" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
@@ -7677,10 +8079,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="20"/>
@@ -7690,7 +8092,7 @@
       <c r="J22" s="53"/>
       <c r="K22" s="53"/>
       <c r="L22" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
@@ -7712,7 +8114,7 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -7773,45 +8175,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="93" t="s">
+      <c r="E6" s="95"/>
+      <c r="F6" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95" t="s">
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="85" t="s">
+      <c r="K6" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="81" t="s">
+      <c r="L6" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="84"/>
-      <c r="O6" s="85" t="s">
+      <c r="N6" s="85"/>
+      <c r="O6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="87" t="s">
+      <c r="P6" s="88" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="90"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -7819,28 +8221,28 @@
         <v>2</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" s="96"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="82"/>
+        <v>104</v>
+      </c>
+      <c r="J7" s="97"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="83"/>
       <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="86"/>
-      <c r="P7" s="88"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="89"/>
     </row>
     <row r="8" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -7851,7 +8253,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>20</v>
@@ -7863,7 +8265,7 @@
         <v>43997</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I8" s="21" t="b">
         <v>0</v>
@@ -7871,7 +8273,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M8" s="23"/>
       <c r="N8" s="24"/>
@@ -7887,7 +8289,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="20">
@@ -7897,17 +8299,17 @@
         <v>43997</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I9" s="21" t="b">
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -7923,7 +8325,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="20">
@@ -7933,17 +8335,17 @@
         <v>43997</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I10" s="21" t="b">
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M10" s="23"/>
       <c r="N10" s="24"/>
@@ -7959,7 +8361,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="20"/>
@@ -7968,10 +8370,10 @@
       <c r="I11" s="21"/>
       <c r="J11" s="3"/>
       <c r="K11" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
@@ -7987,7 +8389,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
@@ -7996,10 +8398,10 @@
       <c r="I12" s="21"/>
       <c r="J12" s="19"/>
       <c r="K12" s="53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M12" s="23"/>
       <c r="N12" s="24"/>
@@ -8015,7 +8417,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="20"/>
@@ -8024,10 +8426,10 @@
       <c r="I13" s="21"/>
       <c r="J13" s="3"/>
       <c r="K13" s="53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
@@ -8043,7 +8445,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="20"/>
@@ -8052,10 +8454,10 @@
       <c r="I14" s="21"/>
       <c r="J14" s="3"/>
       <c r="K14" s="53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
@@ -8081,7 +8483,7 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -8142,45 +8544,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="93" t="s">
+      <c r="E6" s="95"/>
+      <c r="F6" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="95" t="s">
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="95" t="s">
+      <c r="K6" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="95" t="s">
+      <c r="L6" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="84"/>
-      <c r="O6" s="95" t="s">
+      <c r="N6" s="85"/>
+      <c r="O6" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="97" t="s">
+      <c r="P6" s="98" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="90"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="59">
         <v>1</v>
       </c>
@@ -8188,28 +8590,28 @@
         <v>2</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H7" s="58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
+        <v>137</v>
+      </c>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
       <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="96"/>
-      <c r="P7" s="98"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="99"/>
     </row>
     <row r="8" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -8217,10 +8619,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
@@ -8230,7 +8632,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="53"/>
       <c r="L8" s="64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M8" s="23"/>
       <c r="N8" s="24"/>
@@ -8243,10 +8645,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="20"/>
@@ -8258,7 +8660,7 @@
         <v>24</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -8271,10 +8673,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="20"/>
@@ -8282,13 +8684,13 @@
       <c r="H10" s="57"/>
       <c r="I10" s="57"/>
       <c r="J10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="K10" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="M10" s="23"/>
       <c r="N10" s="24"/>
@@ -8301,10 +8703,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="20"/>
@@ -8312,13 +8714,13 @@
       <c r="H11" s="57"/>
       <c r="I11" s="57"/>
       <c r="J11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="K11" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
@@ -8331,10 +8733,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
@@ -8343,10 +8745,10 @@
       <c r="I12" s="57"/>
       <c r="J12" s="19"/>
       <c r="K12" s="53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M12" s="23"/>
       <c r="N12" s="24"/>
@@ -8359,10 +8761,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="20"/>
@@ -8372,7 +8774,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="53"/>
       <c r="L13" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
@@ -8385,7 +8787,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>20</v>
@@ -8395,7 +8797,7 @@
         <v>47</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H14" s="57" t="s">
         <v>47</v>
@@ -8405,10 +8807,10 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
@@ -8421,7 +8823,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>20</v>
@@ -8431,7 +8833,7 @@
         <v>44008</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H15" s="57" t="s">
         <v>47</v>
@@ -8441,10 +8843,10 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
@@ -8457,7 +8859,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>20</v>
@@ -8467,20 +8869,20 @@
         <v>44008</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H16" s="57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I16" s="57" t="s">
         <v>47</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
@@ -8493,30 +8895,30 @@
         <v>10</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="65">
         <v>44008</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H17" s="57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I17" s="66">
         <v>2000</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -8529,10 +8931,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="65">
@@ -8540,17 +8942,17 @@
       </c>
       <c r="G18" s="65"/>
       <c r="H18" s="57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I18" s="66">
         <v>2000</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
@@ -8563,10 +8965,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="65">
@@ -8574,7 +8976,7 @@
       </c>
       <c r="G19" s="65"/>
       <c r="H19" s="57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I19" s="66">
         <v>2000</v>
@@ -8582,7 +8984,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="53"/>
       <c r="L19" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
@@ -8595,10 +8997,10 @@
         <v>13</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="65">
@@ -8606,17 +9008,17 @@
       </c>
       <c r="G20" s="65"/>
       <c r="H20" s="57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I20" s="66">
         <v>2000</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -8629,10 +9031,10 @@
         <v>14</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="65">
@@ -8640,7 +9042,7 @@
       </c>
       <c r="G21" s="65"/>
       <c r="H21" s="57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I21" s="66">
         <v>2000</v>
@@ -8650,7 +9052,7 @@
         <v>24</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
@@ -8663,10 +9065,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="65">
@@ -8678,7 +9080,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="53"/>
       <c r="L22" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
@@ -8691,10 +9093,10 @@
         <v>16</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="65">
@@ -8705,10 +9107,10 @@
       <c r="I23" s="66"/>
       <c r="J23" s="3"/>
       <c r="K23" s="53" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
@@ -8721,10 +9123,10 @@
         <v>17</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="65">
@@ -8735,10 +9137,10 @@
       <c r="I24" s="66"/>
       <c r="J24" s="3"/>
       <c r="K24" s="53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
@@ -8751,10 +9153,10 @@
         <v>18</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="65">
@@ -8765,10 +9167,10 @@
       <c r="I25" s="66"/>
       <c r="J25" s="3"/>
       <c r="K25" s="53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
@@ -8781,10 +9183,10 @@
         <v>19</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="65">
@@ -8795,10 +9197,10 @@
       <c r="I26" s="66"/>
       <c r="J26" s="3"/>
       <c r="K26" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -8820,7 +9222,7 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="F6:I6"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -8879,44 +9281,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="93" t="s">
+      <c r="E6" s="95"/>
+      <c r="F6" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95" t="s">
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85" t="s">
+      <c r="M6" s="85"/>
+      <c r="N6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="87" t="s">
+      <c r="O6" s="88" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="90"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="61">
         <v>1</v>
       </c>
@@ -8924,25 +9326,25 @@
         <v>2</v>
       </c>
       <c r="F7" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="G7" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="82"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="86"/>
-      <c r="O7" s="88"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="89"/>
     </row>
     <row r="8" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -8950,10 +9352,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>20</v>
@@ -8966,7 +9368,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L8" s="23"/>
       <c r="M8" s="24"/>
@@ -8979,10 +9381,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="20"/>
@@ -8993,7 +9395,7 @@
         <v>24</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -9006,10 +9408,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="20">
@@ -9021,10 +9423,10 @@
       <c r="H10" s="57"/>
       <c r="I10" s="3"/>
       <c r="J10" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="24"/>
@@ -9037,10 +9439,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>20</v>
@@ -9051,7 +9453,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="53"/>
       <c r="K11" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -9064,10 +9466,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
@@ -9078,7 +9480,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L12" s="23"/>
       <c r="M12" s="24"/>
@@ -9091,10 +9493,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="20"/>
@@ -9102,10 +9504,10 @@
       <c r="H13" s="66"/>
       <c r="I13" s="3"/>
       <c r="J13" s="53" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -9118,10 +9520,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>20</v>
@@ -9136,11 +9538,11 @@
         <v>1</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J14" s="53"/>
       <c r="K14" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
@@ -9153,21 +9555,21 @@
         <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="20"/>
       <c r="G15" s="66"/>
       <c r="H15" s="66"/>
       <c r="I15" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J15" s="53"/>
       <c r="K15" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
@@ -9180,10 +9582,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="20"/>
@@ -9194,7 +9596,7 @@
         <v>24</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
@@ -9218,7 +9620,7 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -9279,42 +9681,42 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95" t="s">
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85" t="s">
+      <c r="M6" s="85"/>
+      <c r="N6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="87" t="s">
+      <c r="O6" s="88" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="90"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="61">
         <v>1</v>
       </c>
@@ -9322,25 +9724,25 @@
         <v>2</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="82"/>
+        <v>108</v>
+      </c>
+      <c r="I7" s="97"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="86"/>
-      <c r="O7" s="88"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="89"/>
     </row>
     <row r="8" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -9348,21 +9750,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="57"/>
       <c r="I8" s="3"/>
       <c r="J8" s="53"/>
       <c r="K8" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
@@ -9375,10 +9777,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="20"/>
@@ -9386,10 +9788,10 @@
       <c r="H9" s="57"/>
       <c r="I9" s="3"/>
       <c r="J9" s="53" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -9402,10 +9804,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="20"/>
@@ -9416,7 +9818,7 @@
         <v>24</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
@@ -9429,10 +9831,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="20"/>
@@ -9440,10 +9842,10 @@
       <c r="H11" s="57"/>
       <c r="I11" s="3"/>
       <c r="J11" s="53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -9456,10 +9858,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="20"/>
@@ -9467,10 +9869,10 @@
       <c r="H12" s="57"/>
       <c r="I12" s="3"/>
       <c r="J12" s="53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
@@ -9483,14 +9885,14 @@
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="57" t="s">
@@ -9498,10 +9900,10 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -9514,25 +9916,25 @@
         <v>7</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="57" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
@@ -9545,7 +9947,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>20</v>
@@ -9553,15 +9955,15 @@
       <c r="E15" s="3"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H15" s="57"/>
       <c r="I15" s="3"/>
       <c r="J15" s="53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
@@ -9574,7 +9976,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>20</v>
@@ -9582,15 +9984,15 @@
       <c r="E16" s="3"/>
       <c r="F16" s="20"/>
       <c r="G16" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H16" s="57"/>
       <c r="I16" s="3"/>
       <c r="J16" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
@@ -9614,7 +10016,7 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -9676,45 +10078,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="93" t="s">
+      <c r="E6" s="95"/>
+      <c r="F6" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95" t="s">
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="85" t="s">
+      <c r="K6" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="81" t="s">
+      <c r="L6" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="84"/>
-      <c r="O6" s="85" t="s">
+      <c r="N6" s="85"/>
+      <c r="O6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="87" t="s">
+      <c r="P6" s="88" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="90"/>
-      <c r="C7" s="92"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="61">
         <v>1</v>
       </c>
@@ -9722,28 +10124,28 @@
         <v>2</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I7" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="J7" s="96"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="82"/>
+        <v>197</v>
+      </c>
+      <c r="J7" s="97"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="83"/>
       <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="86"/>
-      <c r="P7" s="88"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="89"/>
     </row>
     <row r="8" spans="2:16" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -9751,19 +10153,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F8" s="20">
         <v>1</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H8" s="66">
         <v>2000</v>
@@ -9772,7 +10174,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M8" s="23"/>
       <c r="N8" s="24"/>
@@ -9785,7 +10187,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>20</v>
@@ -9799,10 +10201,10 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -9815,7 +10217,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="3"/>
@@ -9827,10 +10229,10 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M10" s="23"/>
       <c r="N10" s="24"/>
@@ -9843,7 +10245,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="3"/>
@@ -9856,7 +10258,7 @@
         <v>24</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
@@ -9883,7 +10285,7 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter>

--- a/10.結合テスト/総合テスト仕様書.xlsx
+++ b/10.結合テスト/総合テスト仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1BFC82-A821-4395-9B25-3ABECF7838AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E33760-CCDF-41BF-95B8-8490BAC21D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9795" yWindow="630" windowWidth="13995" windowHeight="12585" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="9" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="280">
   <si>
     <t>No</t>
     <phoneticPr fontId="7"/>
@@ -2864,6 +2864,21 @@
   <si>
     <t>・ログイン画面が再表示される
 ・「文字数は20文字以内です」を表示</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>まｒ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>池原</t>
+    <rPh sb="0" eb="2">
+      <t>イケハラ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -3785,7 +3800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -4025,6 +4040,144 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="40" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="42" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4076,6 +4229,54 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4088,191 +4289,17 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="40" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="42" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4659,20 +4686,20 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
       <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4996,11 +5023,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20F3EAB-04A8-4DE3-9E6A-77367B7A6656}">
   <dimension ref="B1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" ySplit="7" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="J15:K15"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5044,44 +5071,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="94" t="s">
+      <c r="E6" s="141"/>
+      <c r="F6" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="96" t="s">
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="85"/>
-      <c r="N6" s="86" t="s">
+      <c r="M6" s="131"/>
+      <c r="N6" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="88" t="s">
+      <c r="O6" s="134" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="91"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="61">
         <v>1</v>
       </c>
@@ -5097,17 +5124,17 @@
       <c r="H7" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="83"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="87"/>
-      <c r="O7" s="89"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="135"/>
     </row>
     <row r="8" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -5325,10 +5352,16 @@
       <c r="K14" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="L14" s="12"/>
+      <c r="L14" s="164" t="s">
+        <v>279</v>
+      </c>
       <c r="M14" s="12"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="8"/>
+      <c r="N14" s="165">
+        <v>44011</v>
+      </c>
+      <c r="O14" s="166" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="15" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
@@ -5349,13 +5382,19 @@
       <c r="J15" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="167" t="s">
         <v>218</v>
       </c>
-      <c r="L15" s="12"/>
+      <c r="L15" s="164" t="s">
+        <v>279</v>
+      </c>
       <c r="M15" s="12"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="8"/>
+      <c r="N15" s="165">
+        <v>44011</v>
+      </c>
+      <c r="O15" s="166" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="16" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
@@ -5374,13 +5413,19 @@
       <c r="H16" s="20"/>
       <c r="I16" s="70"/>
       <c r="J16" s="53"/>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="167" t="s">
         <v>219</v>
       </c>
-      <c r="L16" s="12"/>
+      <c r="L16" s="164" t="s">
+        <v>279</v>
+      </c>
       <c r="M16" s="12"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="8"/>
+      <c r="N16" s="165">
+        <v>44011</v>
+      </c>
+      <c r="O16" s="166" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="17" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
@@ -5404,10 +5449,16 @@
       <c r="K17" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="L17" s="12"/>
+      <c r="L17" s="164" t="s">
+        <v>279</v>
+      </c>
       <c r="M17" s="12"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="8"/>
+      <c r="N17" s="165">
+        <v>44011</v>
+      </c>
+      <c r="O17" s="166" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="18" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
@@ -5431,10 +5482,16 @@
       <c r="K18" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="L18" s="12"/>
+      <c r="L18" s="164" t="s">
+        <v>279</v>
+      </c>
       <c r="M18" s="12"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="8"/>
+      <c r="N18" s="165">
+        <v>44011</v>
+      </c>
+      <c r="O18" s="166" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="19" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
@@ -5460,10 +5517,16 @@
       <c r="K19" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="L19" s="12"/>
+      <c r="L19" s="164" t="s">
+        <v>279</v>
+      </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="8"/>
+      <c r="N19" s="165">
+        <v>44011</v>
+      </c>
+      <c r="O19" s="166" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="20" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7">
@@ -5491,10 +5554,16 @@
       <c r="K20" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="L20" s="12"/>
+      <c r="L20" s="164" t="s">
+        <v>279</v>
+      </c>
       <c r="M20" s="12"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="8"/>
+      <c r="N20" s="165">
+        <v>44011</v>
+      </c>
+      <c r="O20" s="166" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="21" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7">
@@ -5518,10 +5587,16 @@
       <c r="K21" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="L21" s="12"/>
+      <c r="L21" s="164" t="s">
+        <v>279</v>
+      </c>
       <c r="M21" s="12"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="8"/>
+      <c r="N21" s="165">
+        <v>44011</v>
+      </c>
+      <c r="O21" s="166" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="22" spans="2:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -5552,7 +5627,7 @@
   <dimension ref="B1:N19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="I12" sqref="I12:J12"/>
@@ -5598,43 +5673,43 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95" t="s">
+      <c r="E6" s="141"/>
+      <c r="F6" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="96" t="s">
+      <c r="G6" s="162"/>
+      <c r="H6" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="86" t="s">
+      <c r="I6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="J6" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="84" t="s">
+      <c r="K6" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="86" t="s">
+      <c r="L6" s="131"/>
+      <c r="M6" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="88" t="s">
+      <c r="N6" s="134" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="91"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="63">
         <v>1</v>
       </c>
@@ -5647,17 +5722,17 @@
       <c r="G7" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="83"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="129"/>
       <c r="K7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="87"/>
-      <c r="N7" s="89"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="135"/>
     </row>
     <row r="8" spans="2:14" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -5978,16 +6053,16 @@
   </sheetData>
   <autoFilter ref="B7:N7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="10">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6006,7 +6081,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="X18" sqref="X18"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6049,44 +6124,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95" t="s">
+      <c r="E6" s="141"/>
+      <c r="F6" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="96" t="s">
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="85"/>
-      <c r="N6" s="86" t="s">
+      <c r="M6" s="131"/>
+      <c r="N6" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="88" t="s">
+      <c r="O6" s="134" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="91"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="63">
         <v>1</v>
       </c>
@@ -6100,17 +6175,17 @@
       <c r="H7" s="76" t="s">
         <v>259</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="83"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="87"/>
-      <c r="O7" s="89"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="135"/>
     </row>
     <row r="8" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -6224,7 +6299,9 @@
       <c r="K11" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="L11" s="12"/>
+      <c r="L11" s="12" t="s">
+        <v>277</v>
+      </c>
       <c r="M11" s="12"/>
       <c r="N11" s="9"/>
       <c r="O11" s="8"/>
@@ -6916,44 +6993,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="94" t="s">
+      <c r="E6" s="141"/>
+      <c r="F6" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="96" t="s">
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="85"/>
-      <c r="N6" s="86" t="s">
+      <c r="M6" s="131"/>
+      <c r="N6" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="88" t="s">
+      <c r="O6" s="134" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="91"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -6967,17 +7044,17 @@
         <v>7</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="83"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="87"/>
-      <c r="O7" s="89"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="135"/>
     </row>
     <row r="8" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -7069,7 +7146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C30A80-62DF-422D-B9F1-39B5096616A2}">
   <dimension ref="B1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="7" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -7078,380 +7155,380 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="102"/>
-    <col min="2" max="2" width="4.375" style="102" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="102" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="102" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="102" customWidth="1"/>
-    <col min="6" max="8" width="10.625" style="102" customWidth="1"/>
-    <col min="9" max="9" width="29" style="102" customWidth="1"/>
-    <col min="10" max="10" width="36" style="102" customWidth="1"/>
-    <col min="11" max="11" width="39.875" style="102" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="102" customWidth="1"/>
-    <col min="13" max="13" width="23.625" style="102" customWidth="1"/>
-    <col min="14" max="14" width="13.125" style="102" customWidth="1"/>
-    <col min="15" max="15" width="7.625" style="102" customWidth="1"/>
-    <col min="16" max="16384" width="2.625" style="102"/>
+    <col min="1" max="1" width="2.625" style="81"/>
+    <col min="2" max="2" width="4.375" style="81" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="81" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="81" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="81" customWidth="1"/>
+    <col min="6" max="8" width="10.625" style="81" customWidth="1"/>
+    <col min="9" max="9" width="29" style="81" customWidth="1"/>
+    <col min="10" max="10" width="36" style="81" customWidth="1"/>
+    <col min="11" max="11" width="39.875" style="81" customWidth="1"/>
+    <col min="12" max="12" width="5.125" style="81" customWidth="1"/>
+    <col min="13" max="13" width="23.625" style="81" customWidth="1"/>
+    <col min="14" max="14" width="13.125" style="81" customWidth="1"/>
+    <col min="15" max="15" width="7.625" style="81" customWidth="1"/>
+    <col min="16" max="16384" width="2.625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="103"/>
+      <c r="C2" s="82"/>
     </row>
     <row r="3" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="103"/>
+      <c r="C4" s="82"/>
     </row>
     <row r="5" spans="2:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="104"/>
+      <c r="B5" s="83"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="108"/>
-      <c r="F6" s="107" t="s">
+      <c r="E6" s="157"/>
+      <c r="F6" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109" t="s">
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="110" t="s">
+      <c r="J6" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="111" t="s">
+      <c r="K6" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="112" t="s">
+      <c r="L6" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="113"/>
-      <c r="N6" s="110" t="s">
+      <c r="M6" s="147"/>
+      <c r="N6" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="114" t="s">
+      <c r="O6" s="150" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="115"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="117">
+      <c r="B7" s="153"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="84">
         <v>1</v>
       </c>
-      <c r="E7" s="117">
+      <c r="E7" s="84">
         <v>2</v>
       </c>
-      <c r="F7" s="118" t="s">
+      <c r="F7" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="118" t="s">
+      <c r="G7" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="123" t="s">
+      <c r="H7" s="86"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="123" t="s">
+      <c r="M7" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="124"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="151"/>
     </row>
     <row r="8" spans="2:15" ht="41.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="125">
+      <c r="B8" s="88">
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="127"/>
-      <c r="F8" s="128" t="s">
+      <c r="E8" s="90"/>
+      <c r="F8" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="128" t="s">
+      <c r="G8" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130" t="s">
+      <c r="H8" s="92"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="131" t="s">
+      <c r="K8" s="94" t="s">
         <v>269</v>
       </c>
-      <c r="L8" s="132"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="135"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="98"/>
     </row>
     <row r="9" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="136">
+      <c r="B9" s="99">
         <f>ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="138"/>
-      <c r="F9" s="139" t="s">
+      <c r="E9" s="101"/>
+      <c r="F9" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="139" t="s">
+      <c r="G9" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="140"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141" t="s">
+      <c r="H9" s="103"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="142" t="s">
+      <c r="K9" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="145"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="108"/>
     </row>
     <row r="10" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="146">
+      <c r="B10" s="109">
         <v>3</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="147" t="s">
+      <c r="D10" s="110" t="s">
         <v>270</v>
       </c>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148" t="s">
+      <c r="E10" s="110"/>
+      <c r="F10" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="148" t="s">
+      <c r="G10" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="148"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149" t="s">
+      <c r="H10" s="111"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112" t="s">
         <v>271</v>
       </c>
-      <c r="K10" s="147" t="s">
+      <c r="K10" s="110" t="s">
         <v>272</v>
       </c>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="152"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="115"/>
     </row>
     <row r="11" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="153">
+      <c r="B11" s="116">
         <f t="shared" ref="B11:B16" si="0">ROW()-7</f>
         <v>4</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="155" t="s">
+      <c r="D11" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="155"/>
-      <c r="F11" s="156" t="s">
+      <c r="E11" s="118"/>
+      <c r="F11" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="156" t="s">
+      <c r="G11" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="157"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141" t="s">
+      <c r="H11" s="120"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="158" t="s">
+      <c r="K11" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="159"/>
-      <c r="M11" s="160"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="145"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="108"/>
     </row>
     <row r="12" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="136">
+      <c r="B12" s="99">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="155" t="s">
+      <c r="D12" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="155"/>
-      <c r="F12" s="156" t="s">
+      <c r="E12" s="118"/>
+      <c r="F12" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="156" t="s">
+      <c r="G12" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="140"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141" t="s">
+      <c r="H12" s="103"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="158" t="s">
+      <c r="K12" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="145"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="108"/>
     </row>
     <row r="13" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="153">
+      <c r="B13" s="116">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="155" t="s">
+      <c r="D13" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155" t="s">
+      <c r="E13" s="118"/>
+      <c r="F13" s="118" t="s">
         <v>273</v>
       </c>
-      <c r="G13" s="156" t="s">
+      <c r="G13" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="140"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141" t="s">
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="158" t="s">
+      <c r="K13" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="159"/>
-      <c r="M13" s="160"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="145"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="108"/>
     </row>
     <row r="14" spans="2:15" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="161">
+      <c r="B14" s="124">
         <v>7</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="155" t="s">
+      <c r="D14" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155" t="s">
+      <c r="E14" s="118"/>
+      <c r="F14" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="155" t="s">
+      <c r="G14" s="118" t="s">
         <v>274</v>
       </c>
-      <c r="H14" s="162"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141" t="s">
+      <c r="H14" s="125"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104" t="s">
         <v>275</v>
       </c>
-      <c r="K14" s="158" t="s">
+      <c r="K14" s="121" t="s">
         <v>276</v>
       </c>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="145"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="108"/>
     </row>
     <row r="15" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="136">
+      <c r="B15" s="99">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="155" t="s">
+      <c r="D15" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="155" t="s">
+      <c r="E15" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="156" t="s">
+      <c r="F15" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="156" t="s">
+      <c r="G15" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="157"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141" t="s">
+      <c r="H15" s="120"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="158" t="s">
+      <c r="K15" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="145"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="108"/>
     </row>
     <row r="16" spans="2:15" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="136">
+      <c r="B16" s="99">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="155" t="s">
+      <c r="D16" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="155"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141" t="s">
+      <c r="E16" s="118"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="158" t="s">
+      <c r="K16" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="145"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="108"/>
     </row>
     <row r="17" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7532,45 +7609,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="94" t="s">
+      <c r="E6" s="141"/>
+      <c r="F6" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="96" t="s">
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="96" t="s">
+      <c r="K6" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="96" t="s">
+      <c r="L6" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="84" t="s">
+      <c r="M6" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="96" t="s">
+      <c r="N6" s="131"/>
+      <c r="O6" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="98" t="s">
+      <c r="P6" s="160" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="91"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -7589,17 +7666,17 @@
       <c r="I7" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
       <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="97"/>
-      <c r="P7" s="99"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="161"/>
     </row>
     <row r="8" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -8128,7 +8205,7 @@
   <dimension ref="B1:P19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
@@ -8175,45 +8252,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="94" t="s">
+      <c r="E6" s="141"/>
+      <c r="F6" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="96" t="s">
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="84" t="s">
+      <c r="M6" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="86" t="s">
+      <c r="N6" s="131"/>
+      <c r="O6" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="88" t="s">
+      <c r="P6" s="134" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="91"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="34">
         <v>1</v>
       </c>
@@ -8232,17 +8309,17 @@
       <c r="I7" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="97"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="83"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="129"/>
       <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="87"/>
-      <c r="P7" s="89"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="135"/>
     </row>
     <row r="8" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -8544,45 +8621,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="94" t="s">
+      <c r="E6" s="141"/>
+      <c r="F6" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="96" t="s">
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="96" t="s">
+      <c r="K6" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="96" t="s">
+      <c r="L6" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="84" t="s">
+      <c r="M6" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="96" t="s">
+      <c r="N6" s="131"/>
+      <c r="O6" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="98" t="s">
+      <c r="P6" s="160" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="91"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="59">
         <v>1</v>
       </c>
@@ -8601,17 +8678,17 @@
       <c r="I7" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
       <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="97"/>
-      <c r="P7" s="99"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="161"/>
     </row>
     <row r="8" spans="2:16" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -9281,44 +9358,44 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="94" t="s">
+      <c r="E6" s="141"/>
+      <c r="F6" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="96" t="s">
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="85"/>
-      <c r="N6" s="86" t="s">
+      <c r="M6" s="131"/>
+      <c r="N6" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="88" t="s">
+      <c r="O6" s="134" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="91"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="61">
         <v>1</v>
       </c>
@@ -9334,17 +9411,17 @@
       <c r="H7" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="83"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="87"/>
-      <c r="O7" s="89"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="135"/>
     </row>
     <row r="8" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
@@ -9681,42 +9758,42 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="96" t="s">
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="85"/>
-      <c r="N6" s="86" t="s">
+      <c r="M6" s="131"/>
+      <c r="N6" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="88" t="s">
+      <c r="O6" s="134" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="91"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="61">
         <v>1</v>
       </c>
@@ -9732,17 +9809,17 @@
       <c r="H7" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="83"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="87"/>
-      <c r="O7" s="89"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="135"/>
     </row>
     <row r="8" spans="2:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -10030,7 +10107,7 @@
   <dimension ref="B1:P19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
@@ -10078,45 +10155,45 @@
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="94" t="s">
+      <c r="E6" s="141"/>
+      <c r="F6" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="96" t="s">
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="84" t="s">
+      <c r="M6" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="86" t="s">
+      <c r="N6" s="131"/>
+      <c r="O6" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="88" t="s">
+      <c r="P6" s="134" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="91"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="61">
         <v>1</v>
       </c>
@@ -10135,17 +10212,17 @@
       <c r="I7" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="J7" s="97"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="83"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="129"/>
       <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="87"/>
-      <c r="P7" s="89"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="135"/>
     </row>
     <row r="8" spans="2:16" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17">
